--- a/TRANS_Japanese Translation-ECOS-MAPS.xlsx
+++ b/TRANS_Japanese Translation-ECOS-MAPS.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$E$245</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="1306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="1512">
   <si>
     <t>No frames selected</t>
   </si>
@@ -3940,13 +3940,1065 @@
   </si>
   <si>
     <t>Panel Id</t>
+  </si>
+  <si>
+    <t>保管庫に追加</t>
+  </si>
+  <si>
+    <t>住所</t>
+  </si>
+  <si>
+    <t>ラベルの非表示</t>
+  </si>
+  <si>
+    <t>現在の選択では70,000を超える媒体があります。検索条件を絞って再検索してください</t>
+  </si>
+  <si>
+    <t>Shapeの削除</t>
+  </si>
+  <si>
+    <t>密度ヒートマップは、媒体/POI以外には適用できません</t>
+  </si>
+  <si>
+    <t>媒体カテゴリー</t>
+  </si>
+  <si>
+    <t>Shapeの掲出形態の読み込み中にエラーが発生しました</t>
+  </si>
+  <si>
+    <t>媒体の絞り込み</t>
+  </si>
+  <si>
+    <t>媒体種類</t>
+  </si>
+  <si>
+    <t>媒体種類の色</t>
+  </si>
+  <si>
+    <t>サブ媒体種類</t>
+  </si>
+  <si>
+    <t>媒体</t>
+  </si>
+  <si>
+    <t>媒体カテゴリ</t>
+  </si>
+  <si>
+    <t>媒体数</t>
+  </si>
+  <si>
+    <t>媒体ラベル</t>
+  </si>
+  <si>
+    <t>登録媒体から選択</t>
+  </si>
+  <si>
+    <t>媒体が追加されました</t>
+  </si>
+  <si>
+    <t>媒体間の分析機能はサポートされていません。別のタブを選択してください</t>
+  </si>
+  <si>
+    <t>媒体数の取得</t>
+  </si>
+  <si>
+    <t>媒体の取得</t>
+  </si>
+  <si>
+    <t>媒体の取得（すべてのShapeタブ）</t>
+  </si>
+  <si>
+    <t>媒体の取得（現在のShape）</t>
+  </si>
+  <si>
+    <t>媒体の取得（選択されたShapeタブ）</t>
+  </si>
+  <si>
+    <t>媒体の取得（選択されたShape）</t>
+  </si>
+  <si>
+    <t>次の媒体を取得：</t>
+  </si>
+  <si>
+    <t>x Shapeの媒体を取得</t>
+  </si>
+  <si>
+    <t>選択した媒体を非表示</t>
+  </si>
+  <si>
+    <t>選択された地理をインデックス化</t>
+  </si>
+  <si>
+    <t>UK Audienceをインデックス化</t>
+  </si>
+  <si>
+    <t>緯度</t>
+  </si>
+  <si>
+    <t>交通情報</t>
+  </si>
+  <si>
+    <t>媒体タブを読み込み中</t>
+  </si>
+  <si>
+    <t>Shapeタブを読み込み中</t>
+  </si>
+  <si>
+    <t>経度</t>
+  </si>
+  <si>
+    <t>市場媒体</t>
+  </si>
+  <si>
+    <t>媒体社</t>
+  </si>
+  <si>
+    <t>媒体が選択されていません</t>
+  </si>
+  <si>
+    <t>媒体が追加されていないか、すでに存在しています</t>
+  </si>
+  <si>
+    <t>絞り込み条件に該当する媒体はありませんでした</t>
+  </si>
+  <si>
+    <t>選択されたShapeに該当する媒体はありませんでした</t>
+  </si>
+  <si>
+    <t>媒体がありません</t>
+  </si>
+  <si>
+    <t>Shapeが選択されていません</t>
+  </si>
+  <si>
+    <t>地図を開いています</t>
+  </si>
+  <si>
+    <t>媒体を選択してください</t>
+  </si>
+  <si>
+    <t>媒体またはPOIタブを選択してください</t>
+  </si>
+  <si>
+    <t>先に媒体を選択してください</t>
+  </si>
+  <si>
+    <t>次の数以下のマーカーを選択してください</t>
+  </si>
+  <si>
+    <t>郵便番号欄を選択してください</t>
+  </si>
+  <si>
+    <t>Shapeタブを選択してください</t>
+  </si>
+  <si>
+    <t>削除するShapeを選択してください</t>
+  </si>
+  <si>
+    <t>先にShapeを選択してください</t>
+  </si>
+  <si>
+    <t>POIカラー</t>
+  </si>
+  <si>
+    <t>掲出形態</t>
+  </si>
+  <si>
+    <t>保管庫ファイル</t>
+  </si>
+  <si>
+    <t>ファイル名が必要です</t>
+  </si>
+  <si>
+    <t>POIまたは媒体タブを選択してください</t>
+  </si>
+  <si>
+    <t>Shapeファイル名</t>
+  </si>
+  <si>
+    <t>Shapeファイル</t>
+  </si>
+  <si>
+    <t>Shape名</t>
+  </si>
+  <si>
+    <t>Shapeの種類</t>
+  </si>
+  <si>
+    <t>ShapeID</t>
+  </si>
+  <si>
+    <t>Shapeが追加されました</t>
+  </si>
+  <si>
+    <t>Shapeと媒体間の分析機能はサポートされていません。別のタブを選択してください</t>
+  </si>
+  <si>
+    <t>ShapeとPOI間の分析機能はサポートされていません。別のタブを選択してください</t>
+  </si>
+  <si>
+    <t>媒体の表示/非表示</t>
+  </si>
+  <si>
+    <t>選択した媒体を表示</t>
+  </si>
+  <si>
+    <t>該当レコード数合計： x</t>
+  </si>
+  <si>
+    <t>エリア</t>
+  </si>
+  <si>
+    <t>交通状況</t>
+  </si>
+  <si>
+    <t>路線図</t>
+  </si>
+  <si>
+    <t>駅</t>
+  </si>
+  <si>
+    <t>媒体 x 個が追加されました</t>
+  </si>
+  <si>
+    <t>x POIが追加されました</t>
+  </si>
+  <si>
+    <t>Shape x 個が追加されました</t>
+  </si>
+  <si>
+    <t>Shapeが選択されていません。 媒体の絞り込みを実行するには、Shapeを作成または選択してください</t>
+  </si>
+  <si>
+    <t>Shapeが選択されていません。POIの絞り込みを実行するには、Shapeを作成または選択してください</t>
+  </si>
+  <si>
+    <t>多角形</t>
+    <rPh sb="0" eb="3">
+      <t>タカクケイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>絞り込み</t>
+    <rPh sb="0" eb="1">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>絞り込みをクリア</t>
+    <rPh sb="0" eb="1">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>承認</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>エラー</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>初期画面</t>
+    <rPh sb="0" eb="4">
+      <t>ショキガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ClaimsIdentityからクレーム</t>
+  </si>
+  <si>
+    <t>クレームの種類</t>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>クレームの値</t>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>地図を選択</t>
+    <rPh sb="0" eb="2">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>地図を選択</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクトに変換</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>キャンペーンに変換</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクトを選択</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>キャンペーンを選択</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>上書き</t>
+    <rPh sb="0" eb="2">
+      <t>ウワガ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>変換</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Googleヒートマップ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>競合ヒートマップ</t>
+    <rPh sb="0" eb="2">
+      <t>キョウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>バージンヒートマップ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>機会分析ヒートマップ</t>
+    <rPh sb="0" eb="2">
+      <t>ジギョウキカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>地図の種類</t>
+    <rPh sb="0" eb="2">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ヘッダ行</t>
+    <rPh sb="3" eb="4">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>データのインポート</t>
+  </si>
+  <si>
+    <t>無効なデータ</t>
+    <rPh sb="0" eb="2">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ワークシート</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>媒体</t>
+    <rPh sb="0" eb="2">
+      <t>バイタイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>行数</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウスウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ブループリント</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>POIカテゴリ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>POIホールディンググループ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>POI住所</t>
+    <rPh sb="3" eb="5">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>エリア名</t>
+    <rPh sb="3" eb="4">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>店舗郵便番号</t>
+    <rPh sb="0" eb="2">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>東座標</t>
+    <rPh sb="0" eb="3">
+      <t>ヒガシザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>北座標</t>
+    <rPh sb="0" eb="1">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>行数</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウスウウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>グループ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>緯度</t>
+    <rPh sb="0" eb="2">
+      <t>イド</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>POIの絞り込み</t>
+    <rPh sb="4" eb="5">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>絞り込みを実行しています。しばらくお待ちください</t>
+    <rPh sb="0" eb="1">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>駅</t>
+    <rPh sb="0" eb="1">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ホールディンググループ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>小売店グループ</t>
+    <rPh sb="0" eb="3">
+      <t>コウリテン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>リセット</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アップロード</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>数</t>
+    <rPh sb="0" eb="1">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Shapeファイルを開く</t>
+  </si>
+  <si>
+    <t>注意: 同じ名前の地図が複数存在すると、既存のデータが上書きされます</t>
+    <rPh sb="0" eb="2">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ウワガ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>地図名の入力</t>
+    <rPh sb="0" eb="3">
+      <t>チズメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>名前の入力</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>名前を入力してください</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Shapeが選択されていません。先にShapeを選択してください</t>
+  </si>
+  <si>
+    <t>注意: 同じ名前のリポジトリが複数存在すると、既存のデータが上書きされます</t>
+    <rPh sb="0" eb="2">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ウワガ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ファイル名の入力</t>
+  </si>
+  <si>
+    <t>キャンセル</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プライベート</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>共有する</t>
+    <rPh sb="0" eb="2">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Eメールアドレス</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Eメールアドレスの追加</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Eメールアドレスを追加してください</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>選択されたEメールアドレス</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>媒体リスト</t>
+  </si>
+  <si>
+    <t>POIリスト</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>選択済</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>FGカラー</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>媒体カテゴリー</t>
+    <rPh sb="0" eb="2">
+      <t>バイタイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>媒体種類</t>
+    <rPh sb="0" eb="4">
+      <t>バイタイシュルイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>媒体社</t>
+    <rPh sb="0" eb="2">
+      <t>バイタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>サブ媒体種類</t>
+    <rPh sb="2" eb="4">
+      <t>バイタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>エリア</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>媒体カテゴリー名</t>
+    <rPh sb="0" eb="2">
+      <t>バイタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>媒体種類名</t>
+    <rPh sb="0" eb="4">
+      <t>バイタイシュルイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>次元コード名</t>
+    <rPh sb="0" eb="2">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>媒体社名</t>
+    <rPh sb="0" eb="3">
+      <t>バイタイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>駅名</t>
+    <rPh sb="0" eb="1">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インデックス</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>選択された媒体</t>
+  </si>
+  <si>
+    <t>最大化された媒体</t>
+  </si>
+  <si>
+    <t>ファイナライズされた媒体</t>
+  </si>
+  <si>
+    <t>地図</t>
+    <rPh sb="0" eb="2">
+      <t>チズ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>処理中…</t>
+    <rPh sb="0" eb="3">
+      <t>ショリチュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>お待ちください…</t>
+    <rPh sb="1" eb="7">
+      <t>マチクd</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>地図を開いています。お待ちください…</t>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プランナー</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>通知</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロポーザル</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>レポート</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ドキュメント</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ブリーフ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タグ付け</t>
+    <rPh sb="2" eb="3">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Googleマップ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>リクエストの処理中にエラーが発生しました</t>
+    <rPh sb="6" eb="9">
+      <t>ショリチュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>距離</t>
+    <rPh sb="0" eb="2">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ターゲット含有率</t>
+    <rPh sb="5" eb="8">
+      <t>ガンユウリツ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>媒体名</t>
+  </si>
+  <si>
+    <t>POI名</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ソースのアップデート</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>識別子</t>
+    <rPh sb="0" eb="3">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>POIのID</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>地図が保存されるまでしばらくお待ちください</t>
+  </si>
+  <si>
+    <t>ヒートマップの読み込み中  しばらくお待ちください</t>
+  </si>
+  <si>
+    <t>既存のヒートマップを削除しています</t>
+  </si>
+  <si>
+    <t>データを削除しています</t>
+  </si>
+  <si>
+    <t>重複データの処理中…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>残り文字数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: %{count} / {total}</t>
+    </r>
+  </si>
+  <si>
+    <t>ページあたりの表示件数</t>
+  </si>
+  <si>
+    <t>表示するアイテムがありません</t>
+  </si>
+  <si>
+    <t>変更内容は保存されません。続けますか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全%{total} 件中%{x} - %{y} </t>
+  </si>
+  <si>
+    <t>ホーム</t>
+  </si>
+  <si>
+    <t>ファイルの処理中にエラーが発生しました。はじめからやりなおしてください</t>
+  </si>
+  <si>
+    <t>登録媒体の絞込み</t>
+  </si>
+  <si>
+    <t>ファイルを選ぶ</t>
+  </si>
+  <si>
+    <t>ファイルのアップロード</t>
+  </si>
+  <si>
+    <t>再読み込み中…</t>
+  </si>
+  <si>
+    <t>絞込み検索</t>
+  </si>
+  <si>
+    <t>マッピングされていません</t>
+  </si>
+  <si>
+    <t>ja (JAPANESE) [Received on Fri 16/10/2015 16:16]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4022,8 +5074,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4036,8 +5116,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4049,19 +5141,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -4169,7 +5248,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4187,16 +5266,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4267,7 +5361,97 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4554,10 +5738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F398"/>
+  <dimension ref="A1:G398"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="E1:E1048576 B1:B1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E360" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4567,7 +5751,8 @@
     <col min="3" max="3" width="106.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="94.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="99.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="11"/>
+    <col min="6" max="6" width="93.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1">
@@ -4584,7 +5769,9 @@
       <c r="E1" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="21" t="s">
+        <v>1511</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="11" t="s">
@@ -4602,7 +5789,9 @@
       <c r="E2" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="22" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
@@ -4620,7 +5809,9 @@
       <c r="E3" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="22" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
@@ -4638,7 +5829,9 @@
       <c r="E4" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="22" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
@@ -4656,7 +5849,9 @@
       <c r="E5" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="22" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11" t="s">
@@ -4674,7 +5869,9 @@
       <c r="E6" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="22" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11" t="s">
@@ -4692,7 +5889,9 @@
       <c r="E7" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="23" t="s">
+        <v>1306</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11" t="s">
@@ -4710,7 +5909,9 @@
       <c r="E8" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="24" t="s">
+        <v>1307</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="11" t="s">
@@ -4728,7 +5929,9 @@
       <c r="E9" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="22" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="11" t="s">
@@ -4746,7 +5949,9 @@
       <c r="E10" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="22" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="11" t="s">
@@ -4764,7 +5969,9 @@
       <c r="E11" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="22" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="11" t="s">
@@ -4782,7 +5989,9 @@
       <c r="E12" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="22" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="11" t="s">
@@ -4800,7 +6009,9 @@
       <c r="E13" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="22" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11" t="s">
@@ -4818,7 +6029,9 @@
       <c r="E14" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="22" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="11" t="s">
@@ -4836,7 +6049,9 @@
       <c r="E15" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="22" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="11" t="s">
@@ -4854,7 +6069,9 @@
       <c r="E16" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="22" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="11" t="s">
@@ -4872,7 +6089,9 @@
       <c r="E17" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="22" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="11" t="s">
@@ -4890,7 +6109,9 @@
       <c r="E18" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="22" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="11" t="s">
@@ -4908,7 +6129,9 @@
       <c r="E19" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="22" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="11" t="s">
@@ -4926,7 +6149,9 @@
       <c r="E20" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="22" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="11" t="s">
@@ -4944,7 +6169,9 @@
       <c r="E21" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="22" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11" t="s">
@@ -4962,7 +6189,9 @@
       <c r="E22" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="22" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
@@ -4980,7 +6209,9 @@
       <c r="E23" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="22" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="11" t="s">
@@ -4998,7 +6229,9 @@
       <c r="E24" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="22" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="11" t="s">
@@ -5016,7 +6249,9 @@
       <c r="E25" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="22" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="11" t="s">
@@ -5034,7 +6269,9 @@
       <c r="E26" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="22" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11" t="s">
@@ -5052,7 +6289,9 @@
       <c r="E27" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="F27" s="14"/>
+      <c r="F27" s="22" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="11" t="s">
@@ -5070,7 +6309,9 @@
       <c r="E28" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="F28" s="14"/>
+      <c r="F28" s="22" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="11" t="s">
@@ -5088,7 +6329,9 @@
       <c r="E29" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="F29" s="14"/>
+      <c r="F29" s="22" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="11" t="s">
@@ -5106,7 +6349,9 @@
       <c r="E30" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="F30" s="14"/>
+      <c r="F30" s="22" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="11" t="s">
@@ -5124,7 +6369,9 @@
       <c r="E31" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="22" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="11" t="s">
@@ -5142,7 +6389,9 @@
       <c r="E32" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F32" s="14"/>
+      <c r="F32" s="24" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="11" t="s">
@@ -5160,7 +6409,9 @@
       <c r="E33" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="F33" s="14"/>
+      <c r="F33" s="23" t="s">
+        <v>1308</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="11" t="s">
@@ -5178,7 +6429,9 @@
       <c r="E34" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="F34" s="14"/>
+      <c r="F34" s="22" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="11" t="s">
@@ -5196,7 +6449,9 @@
       <c r="E35" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="F35" s="14"/>
+      <c r="F35" s="22" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="11" t="s">
@@ -5214,7 +6469,9 @@
       <c r="E36" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="F36" s="14"/>
+      <c r="F36" s="22" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="11" t="s">
@@ -5232,7 +6489,9 @@
       <c r="E37" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="F37" s="14"/>
+      <c r="F37" s="22" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="11" t="s">
@@ -5250,7 +6509,9 @@
       <c r="E38" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="F38" s="14"/>
+      <c r="F38" s="22" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="11" t="s">
@@ -5268,7 +6529,9 @@
       <c r="E39" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="F39" s="14"/>
+      <c r="F39" s="22" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="30">
       <c r="A40" s="11" t="s">
@@ -5286,7 +6549,9 @@
       <c r="E40" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="F40" s="14"/>
+      <c r="F40" s="22" t="s">
+        <v>1309</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="11" t="s">
@@ -5304,7 +6569,9 @@
       <c r="E41" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="F41" s="14"/>
+      <c r="F41" s="22" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="11" t="s">
@@ -5322,7 +6589,9 @@
       <c r="E42" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="F42" s="14"/>
+      <c r="F42" s="22" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="11" t="s">
@@ -5340,7 +6609,9 @@
       <c r="E43" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="F43" s="14"/>
+      <c r="F43" s="22" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="11" t="s">
@@ -5358,7 +6629,9 @@
       <c r="E44" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="F44" s="14"/>
+      <c r="F44" s="22" t="s">
+        <v>1310</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="11" t="s">
@@ -5376,7 +6649,9 @@
       <c r="E45" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F45" s="14"/>
+      <c r="F45" s="22" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="11" t="s">
@@ -5394,7 +6669,9 @@
       <c r="E46" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="F46" s="14"/>
+      <c r="F46" s="22" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="11" t="s">
@@ -5412,7 +6689,9 @@
       <c r="E47" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="F47" s="14"/>
+      <c r="F47" s="22" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="11" t="s">
@@ -5430,7 +6709,9 @@
       <c r="E48" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="F48" s="14"/>
+      <c r="F48" s="22" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="11" t="s">
@@ -5448,7 +6729,9 @@
       <c r="E49" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="F49" s="14"/>
+      <c r="F49" s="22" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="11" t="s">
@@ -5466,7 +6749,9 @@
       <c r="E50" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="F50" s="14"/>
+      <c r="F50" s="22" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="11" t="s">
@@ -5484,7 +6769,9 @@
       <c r="E51" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="F51" s="14"/>
+      <c r="F51" s="22" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="11" t="s">
@@ -5502,7 +6789,9 @@
       <c r="E52" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F52" s="14"/>
+      <c r="F52" s="24" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="11" t="s">
@@ -5520,7 +6809,9 @@
       <c r="E53" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="F53" s="14"/>
+      <c r="F53" s="22" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="11" t="s">
@@ -5538,7 +6829,9 @@
       <c r="E54" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="F54" s="14"/>
+      <c r="F54" s="22" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="11" t="s">
@@ -5556,7 +6849,9 @@
       <c r="E55" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="F55" s="14"/>
+      <c r="F55" s="22" t="s">
+        <v>1312</v>
+      </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="11" t="s">
@@ -5574,7 +6869,9 @@
       <c r="E56" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="F56" s="14"/>
+      <c r="F56" s="22" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="11" t="s">
@@ -5592,7 +6889,9 @@
       <c r="E57" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="F57" s="14"/>
+      <c r="F57" s="22" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="11" t="s">
@@ -5610,7 +6909,9 @@
       <c r="E58" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="F58" s="14"/>
+      <c r="F58" s="24" t="s">
+        <v>1313</v>
+      </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="11" t="s">
@@ -5628,7 +6929,9 @@
       <c r="E59" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="F59" s="14"/>
+      <c r="F59" s="22" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="11" t="s">
@@ -5646,7 +6949,9 @@
       <c r="E60" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="F60" s="14"/>
+      <c r="F60" s="22" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="11" t="s">
@@ -5664,7 +6969,9 @@
       <c r="E61" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="F61" s="14"/>
+      <c r="F61" s="22" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="11" t="s">
@@ -5682,7 +6989,9 @@
       <c r="E62" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="F62" s="14"/>
+      <c r="F62" s="22" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="11" t="s">
@@ -5700,7 +7009,9 @@
       <c r="E63" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="F63" s="14"/>
+      <c r="F63" s="22" t="s">
+        <v>1314</v>
+      </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="11" t="s">
@@ -5718,7 +7029,9 @@
       <c r="E64" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="F64" s="14"/>
+      <c r="F64" s="22" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="11" t="s">
@@ -5736,7 +7049,9 @@
       <c r="E65" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="F65" s="14"/>
+      <c r="F65" s="22" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="11" t="s">
@@ -5754,7 +7069,9 @@
       <c r="E66" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="F66" s="14"/>
+      <c r="F66" s="22" t="s">
+        <v>1315</v>
+      </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="11" t="s">
@@ -5772,7 +7089,9 @@
       <c r="E67" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="F67" s="14"/>
+      <c r="F67" s="22" t="s">
+        <v>1316</v>
+      </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="11" t="s">
@@ -5790,7 +7109,9 @@
       <c r="E68" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="F68" s="14"/>
+      <c r="F68" s="22" t="s">
+        <v>1317</v>
+      </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="11" t="s">
@@ -5808,7 +7129,9 @@
       <c r="E69" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="F69" s="14"/>
+      <c r="F69" s="22" t="s">
+        <v>1318</v>
+      </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="11" t="s">
@@ -5826,7 +7149,9 @@
       <c r="E70" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="F70" s="14"/>
+      <c r="F70" s="22" t="s">
+        <v>1319</v>
+      </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="11" t="s">
@@ -5844,7 +7169,9 @@
       <c r="E71" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="F71" s="14"/>
+      <c r="F71" s="22" t="s">
+        <v>1320</v>
+      </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="11" t="s">
@@ -5862,7 +7189,9 @@
       <c r="E72" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="F72" s="14"/>
+      <c r="F72" s="22" t="s">
+        <v>1321</v>
+      </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="11" t="s">
@@ -5880,7 +7209,9 @@
       <c r="E73" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="F73" s="14"/>
+      <c r="F73" s="23" t="s">
+        <v>1322</v>
+      </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="11" t="s">
@@ -5898,7 +7229,9 @@
       <c r="E74" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="F74" s="14"/>
+      <c r="F74" s="22" t="s">
+        <v>1318</v>
+      </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
@@ -5916,7 +7249,9 @@
       <c r="E75" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="F75" s="14"/>
+      <c r="F75" s="22" t="s">
+        <v>1323</v>
+      </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="11" t="s">
@@ -5934,7 +7269,9 @@
       <c r="E76" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="F76" s="14"/>
+      <c r="F76" s="22" t="s">
+        <v>1324</v>
+      </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="11" t="s">
@@ -5952,7 +7289,9 @@
       <c r="E77" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="F77" s="14"/>
+      <c r="F77" s="22" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="11" t="s">
@@ -5970,7 +7309,9 @@
       <c r="E78" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="F78" s="14"/>
+      <c r="F78" s="22" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="11" t="s">
@@ -5988,7 +7329,9 @@
       <c r="E79" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="F79" s="14"/>
+      <c r="F79" s="22" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="11" t="s">
@@ -6006,7 +7349,9 @@
       <c r="E80" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="F80" s="14"/>
+      <c r="F80" s="22" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="11" t="s">
@@ -6024,7 +7369,9 @@
       <c r="E81" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="F81" s="14"/>
+      <c r="F81" s="22" t="s">
+        <v>1325</v>
+      </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="11" t="s">
@@ -6042,7 +7389,9 @@
       <c r="E82" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="F82" s="14"/>
+      <c r="F82" s="22" t="s">
+        <v>1326</v>
+      </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="11" t="s">
@@ -6060,7 +7409,9 @@
       <c r="E83" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="F83" s="14"/>
+      <c r="F83" s="22" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="11" t="s">
@@ -6078,7 +7429,9 @@
       <c r="E84" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="F84" s="14"/>
+      <c r="F84" s="22" t="s">
+        <v>1328</v>
+      </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="11" t="s">
@@ -6096,7 +7449,9 @@
       <c r="E85" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="F85" s="14"/>
+      <c r="F85" s="22" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="11" t="s">
@@ -6114,7 +7469,9 @@
       <c r="E86" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="F86" s="14"/>
+      <c r="F86" s="22" t="s">
+        <v>1330</v>
+      </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="11" t="s">
@@ -6132,7 +7489,9 @@
       <c r="E87" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="F87" s="14"/>
+      <c r="F87" s="5" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="11" t="s">
@@ -6150,7 +7509,9 @@
       <c r="E88" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="F88" s="14"/>
+      <c r="F88" s="22" t="s">
+        <v>1331</v>
+      </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="11" t="s">
@@ -6168,7 +7529,9 @@
       <c r="E89" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F89" s="14"/>
+      <c r="F89" s="22" t="s">
+        <v>1332</v>
+      </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="11" t="s">
@@ -6186,7 +7549,9 @@
       <c r="E90" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F90" s="14"/>
+      <c r="F90" s="22" t="s">
+        <v>1332</v>
+      </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="11" t="s">
@@ -6204,7 +7569,9 @@
       <c r="E91" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="F91" s="14"/>
+      <c r="F91" s="5" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="11" t="s">
@@ -6222,7 +7589,9 @@
       <c r="E92" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="F92" s="14"/>
+      <c r="F92" s="5" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="11" t="s">
@@ -6240,7 +7609,9 @@
       <c r="E93" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="F93" s="14"/>
+      <c r="F93" s="5" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="11" t="s">
@@ -6258,7 +7629,9 @@
       <c r="E94" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="F94" s="14"/>
+      <c r="F94" s="5" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="11" t="s">
@@ -6276,7 +7649,9 @@
       <c r="E95" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="F95" s="14"/>
+      <c r="F95" s="22" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="11" t="s">
@@ -6294,7 +7669,9 @@
       <c r="E96" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="F96" s="14"/>
+      <c r="F96" s="22" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="11" t="s">
@@ -6312,7 +7689,9 @@
       <c r="E97" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="F97" s="14"/>
+      <c r="F97" s="5" t="s">
+        <v>1334</v>
+      </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="11" t="s">
@@ -6330,7 +7709,9 @@
       <c r="E98" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="F98" s="14"/>
+      <c r="F98" s="5" t="s">
+        <v>1335</v>
+      </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="11" t="s">
@@ -6348,7 +7729,9 @@
       <c r="E99" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="F99" s="14"/>
+      <c r="F99" s="22" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="11" t="s">
@@ -6366,7 +7749,9 @@
       <c r="E100" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="F100" s="14"/>
+      <c r="F100" s="22" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="11" t="s">
@@ -6384,7 +7769,9 @@
       <c r="E101" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="F101" s="14"/>
+      <c r="F101" s="22" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="11" t="s">
@@ -6402,7 +7789,9 @@
       <c r="E102" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="F102" s="14"/>
+      <c r="F102" s="22" t="s">
+        <v>1336</v>
+      </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="11" t="s">
@@ -6420,7 +7809,9 @@
       <c r="E103" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="F103" s="14"/>
+      <c r="F103" s="23" t="s">
+        <v>1337</v>
+      </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="11" t="s">
@@ -6438,7 +7829,9 @@
       <c r="E104" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="F104" s="14"/>
+      <c r="F104" s="22" t="s">
+        <v>1338</v>
+      </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="11" t="s">
@@ -6456,7 +7849,9 @@
       <c r="E105" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="F105" s="14"/>
+      <c r="F105" s="22" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="11" t="s">
@@ -6474,7 +7869,9 @@
       <c r="E106" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="F106" s="14"/>
+      <c r="F106" s="22" t="s">
+        <v>1339</v>
+      </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="11" t="s">
@@ -6492,7 +7889,9 @@
       <c r="E107" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="F107" s="14"/>
+      <c r="F107" s="22" t="s">
+        <v>1340</v>
+      </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="11" t="s">
@@ -6510,7 +7909,9 @@
       <c r="E108" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="F108" s="14"/>
+      <c r="F108" s="22" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="11" t="s">
@@ -6528,7 +7929,9 @@
       <c r="E109" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="F109" s="14"/>
+      <c r="F109" s="5" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="11" t="s">
@@ -6546,7 +7949,9 @@
       <c r="E110" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="F110" s="14"/>
+      <c r="F110" s="5" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="11" t="s">
@@ -6564,7 +7969,9 @@
       <c r="E111" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="F111" s="14"/>
+      <c r="F111" s="22" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="11" t="s">
@@ -6582,7 +7989,9 @@
       <c r="E112" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="F112" s="14"/>
+      <c r="F112" s="22" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="11" t="s">
@@ -6600,7 +8009,9 @@
       <c r="E113" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="F113" s="14"/>
+      <c r="F113" s="22" t="s">
+        <v>1342</v>
+      </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="11" t="s">
@@ -6618,7 +8029,9 @@
       <c r="E114" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F114" s="14"/>
+      <c r="F114" s="22" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="11" t="s">
@@ -6636,7 +8049,9 @@
       <c r="E115" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="F115" s="14"/>
+      <c r="F115" s="22" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="11" t="s">
@@ -6654,7 +8069,9 @@
       <c r="E116" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="F116" s="14"/>
+      <c r="F116" s="22" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="11" t="s">
@@ -6672,7 +8089,9 @@
       <c r="E117" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="F117" s="14"/>
+      <c r="F117" s="5" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="11" t="s">
@@ -6690,7 +8109,9 @@
       <c r="E118" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="F118" s="14"/>
+      <c r="F118" s="5" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="11" t="s">
@@ -6708,7 +8129,9 @@
       <c r="E119" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="F119" s="14"/>
+      <c r="F119" s="5" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="11" t="s">
@@ -6726,7 +8149,9 @@
       <c r="E120" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="F120" s="14"/>
+      <c r="F120" s="22" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="11" t="s">
@@ -6744,7 +8169,9 @@
       <c r="E121" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="F121" s="14"/>
+      <c r="F121" s="5" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="11" t="s">
@@ -6762,7 +8189,9 @@
       <c r="E122" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="F122" s="14"/>
+      <c r="F122" s="5" t="s">
+        <v>1343</v>
+      </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="11" t="s">
@@ -6780,7 +8209,9 @@
       <c r="E123" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="F123" s="14"/>
+      <c r="F123" s="6" t="s">
+        <v>1344</v>
+      </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="11" t="s">
@@ -6798,7 +8229,9 @@
       <c r="E124" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="F124" s="14"/>
+      <c r="F124" s="6" t="s">
+        <v>1345</v>
+      </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="11" t="s">
@@ -6816,7 +8249,9 @@
       <c r="E125" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="F125" s="14"/>
+      <c r="F125" s="6" t="s">
+        <v>1346</v>
+      </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="11" t="s">
@@ -6834,7 +8269,9 @@
       <c r="E126" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="F126" s="14"/>
+      <c r="F126" s="6" t="s">
+        <v>1347</v>
+      </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="11" t="s">
@@ -6852,7 +8289,9 @@
       <c r="E127" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="F127" s="14"/>
+      <c r="F127" s="6" t="s">
+        <v>1343</v>
+      </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="11" t="s">
@@ -6870,7 +8309,9 @@
       <c r="E128" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="F128" s="14"/>
+      <c r="F128" s="6" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="11" t="s">
@@ -6888,7 +8329,9 @@
       <c r="E129" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="F129" s="14"/>
+      <c r="F129" s="6" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="11" t="s">
@@ -6906,7 +8349,9 @@
       <c r="E130" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="F130" s="14"/>
+      <c r="F130" s="22" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="11" t="s">
@@ -6924,7 +8369,9 @@
       <c r="E131" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="F131" s="14"/>
+      <c r="F131" s="6" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="11" t="s">
@@ -6942,7 +8389,9 @@
       <c r="E132" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="F132" s="14"/>
+      <c r="F132" s="6" t="s">
+        <v>1348</v>
+      </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="11" t="s">
@@ -6960,7 +8409,9 @@
       <c r="E133" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="F133" s="14"/>
+      <c r="F133" s="22" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="11" t="s">
@@ -6978,7 +8429,9 @@
       <c r="E134" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="F134" s="14"/>
+      <c r="F134" s="22" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="11" t="s">
@@ -6996,7 +8449,9 @@
       <c r="E135" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="F135" s="14"/>
+      <c r="F135" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="11" t="s">
@@ -7014,7 +8469,9 @@
       <c r="E136" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="F136" s="14"/>
+      <c r="F136" s="22" t="s">
+        <v>1349</v>
+      </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="11" t="s">
@@ -7032,7 +8489,9 @@
       <c r="E137" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="F137" s="14"/>
+      <c r="F137" s="22" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="11" t="s">
@@ -7050,7 +8509,9 @@
       <c r="E138" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="F138" s="14"/>
+      <c r="F138" s="22" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="11" t="s">
@@ -7068,7 +8529,9 @@
       <c r="E139" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="F139" s="14"/>
+      <c r="F139" s="6" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="11" t="s">
@@ -7086,7 +8549,9 @@
       <c r="E140" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="F140" s="14"/>
+      <c r="F140" s="6" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="11" t="s">
@@ -7104,7 +8569,9 @@
       <c r="E141" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="F141" s="14"/>
+      <c r="F141" s="6" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="11" t="s">
@@ -7122,7 +8589,9 @@
       <c r="E142" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="F142" s="14"/>
+      <c r="F142" s="6" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="11" t="s">
@@ -7140,7 +8609,9 @@
       <c r="E143" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="F143" s="14"/>
+      <c r="F143" s="22" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="11" t="s">
@@ -7158,7 +8629,9 @@
       <c r="E144" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="F144" s="14"/>
+      <c r="F144" s="22" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="11" t="s">
@@ -7176,7 +8649,9 @@
       <c r="E145" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="F145" s="14"/>
+      <c r="F145" s="22" t="s">
+        <v>1350</v>
+      </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="11" t="s">
@@ -7194,7 +8669,9 @@
       <c r="E146" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="F146" s="14"/>
+      <c r="F146" s="6" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="11" t="s">
@@ -7212,7 +8689,9 @@
       <c r="E147" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="F147" s="14"/>
+      <c r="F147" s="6" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="11" t="s">
@@ -7230,7 +8709,9 @@
       <c r="E148" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="F148" s="14"/>
+      <c r="F148" s="6" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="11" t="s">
@@ -7248,7 +8729,9 @@
       <c r="E149" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="F149" s="14"/>
+      <c r="F149" s="6" t="s">
+        <v>1352</v>
+      </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="11" t="s">
@@ -7266,7 +8749,9 @@
       <c r="E150" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="F150" s="14"/>
+      <c r="F150" s="22" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="11" t="s">
@@ -7284,7 +8769,9 @@
       <c r="E151" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="F151" s="14"/>
+      <c r="F151" s="22" t="s">
+        <v>1352</v>
+      </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="11" t="s">
@@ -7302,7 +8789,9 @@
       <c r="E152" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="F152" s="14"/>
+      <c r="F152" s="22" t="s">
+        <v>1353</v>
+      </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="11" t="s">
@@ -7320,7 +8809,9 @@
       <c r="E153" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="F153" s="14"/>
+      <c r="F153" s="22" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="11" t="s">
@@ -7338,7 +8829,9 @@
       <c r="E154" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="F154" s="14"/>
+      <c r="F154" s="22" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="11" t="s">
@@ -7356,7 +8849,9 @@
       <c r="E155" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="F155" s="14"/>
+      <c r="F155" s="22" t="s">
+        <v>1354</v>
+      </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="11" t="s">
@@ -7374,7 +8869,9 @@
       <c r="E156" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="F156" s="14"/>
+      <c r="F156" s="22" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="11" t="s">
@@ -7392,7 +8889,9 @@
       <c r="E157" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="F157" s="14"/>
+      <c r="F157" s="22" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="11" t="s">
@@ -7410,7 +8909,9 @@
       <c r="E158" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="F158" s="14"/>
+      <c r="F158" s="22" t="s">
+        <v>1357</v>
+      </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="11" t="s">
@@ -7428,7 +8929,9 @@
       <c r="E159" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="F159" s="14"/>
+      <c r="F159" s="22" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="11" t="s">
@@ -7446,7 +8949,9 @@
       <c r="E160" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="F160" s="14"/>
+      <c r="F160" s="22" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="11" t="s">
@@ -7464,7 +8969,9 @@
       <c r="E161" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="F161" s="14"/>
+      <c r="F161" s="6" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="11" t="s">
@@ -7482,7 +8989,9 @@
       <c r="E162" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="F162" s="14"/>
+      <c r="F162" s="22" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="11" t="s">
@@ -7500,7 +9009,9 @@
       <c r="E163" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F163" s="14"/>
+      <c r="F163" s="22" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="11" t="s">
@@ -7518,7 +9029,9 @@
       <c r="E164" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="F164" s="14"/>
+      <c r="F164" s="6" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="11" t="s">
@@ -7536,7 +9049,9 @@
       <c r="E165" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="F165" s="14"/>
+      <c r="F165" s="6" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="11" t="s">
@@ -7554,7 +9069,9 @@
       <c r="E166" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="F166" s="14"/>
+      <c r="F166" s="25" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="11" t="s">
@@ -7572,7 +9089,9 @@
       <c r="E167" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="F167" s="14"/>
+      <c r="F167" s="6" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="11" t="s">
@@ -7590,7 +9109,9 @@
       <c r="E168" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="F168" s="14"/>
+      <c r="F168" s="5" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="11" t="s">
@@ -7608,7 +9129,9 @@
       <c r="E169" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="F169" s="14"/>
+      <c r="F169" s="10" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="11" t="s">
@@ -7626,7 +9149,9 @@
       <c r="E170" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="F170" s="14"/>
+      <c r="F170" s="5" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="11" t="s">
@@ -7644,7 +9169,9 @@
       <c r="E171" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="F171" s="14"/>
+      <c r="F171" s="5" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="11" t="s">
@@ -7662,7 +9189,9 @@
       <c r="E172" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="F172" s="14"/>
+      <c r="F172" s="5" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="11" t="s">
@@ -7680,7 +9209,9 @@
       <c r="E173" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="F173" s="14"/>
+      <c r="F173" s="6" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="11" t="s">
@@ -7698,7 +9229,9 @@
       <c r="E174" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="F174" s="14"/>
+      <c r="F174" s="22" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="11" t="s">
@@ -7716,7 +9249,9 @@
       <c r="E175" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="F175" s="14"/>
+      <c r="F175" s="22" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="11" t="s">
@@ -7734,7 +9269,9 @@
       <c r="E176" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="F176" s="14"/>
+      <c r="F176" s="22" t="s">
+        <v>1359</v>
+      </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="11" t="s">
@@ -7752,7 +9289,9 @@
       <c r="E177" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="F177" s="14"/>
+      <c r="F177" s="22" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="11" t="s">
@@ -7770,7 +9309,9 @@
       <c r="E178" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="F178" s="14"/>
+      <c r="F178" s="22" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="11" t="s">
@@ -7788,7 +9329,9 @@
       <c r="E179" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="F179" s="14"/>
+      <c r="F179" s="25" t="s">
+        <v>1360</v>
+      </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="11" t="s">
@@ -7806,7 +9349,9 @@
       <c r="E180" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="F180" s="14"/>
+      <c r="F180" s="25" t="s">
+        <v>1361</v>
+      </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="11" t="s">
@@ -7824,7 +9369,9 @@
       <c r="E181" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="F181" s="14"/>
+      <c r="F181" s="5" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="11" t="s">
@@ -7842,7 +9389,9 @@
       <c r="E182" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="F182" s="14"/>
+      <c r="F182" s="5" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="11" t="s">
@@ -7860,7 +9409,9 @@
       <c r="E183" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="F183" s="14"/>
+      <c r="F183" s="5" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="11" t="s">
@@ -7878,7 +9429,9 @@
       <c r="E184" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="F184" s="14"/>
+      <c r="F184" s="5" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="11" t="s">
@@ -7896,7 +9449,9 @@
       <c r="E185" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="F185" s="14"/>
+      <c r="F185" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="11" t="s">
@@ -7914,7 +9469,9 @@
       <c r="E186" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="F186" s="14"/>
+      <c r="F186" s="22" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="11" t="s">
@@ -7932,7 +9489,9 @@
       <c r="E187" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="F187" s="14"/>
+      <c r="F187" s="5" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="11" t="s">
@@ -7950,7 +9509,9 @@
       <c r="E188" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="F188" s="14"/>
+      <c r="F188" s="22" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="11" t="s">
@@ -7968,7 +9529,9 @@
       <c r="E189" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="F189" s="14"/>
+      <c r="F189" s="22" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="11" t="s">
@@ -7986,7 +9549,9 @@
       <c r="E190" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="F190" s="14"/>
+      <c r="F190" s="22" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="11" t="s">
@@ -8004,7 +9569,9 @@
       <c r="E191" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="F191" s="14"/>
+      <c r="F191" s="22" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="11" t="s">
@@ -8022,7 +9589,9 @@
       <c r="E192" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="F192" s="14"/>
+      <c r="F192" s="22" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="11" t="s">
@@ -8040,7 +9609,9 @@
       <c r="E193" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="F193" s="14"/>
+      <c r="F193" s="22" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="11" t="s">
@@ -8058,7 +9629,9 @@
       <c r="E194" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="F194" s="14"/>
+      <c r="F194" s="6" t="s">
+        <v>1362</v>
+      </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="11" t="s">
@@ -8076,7 +9649,9 @@
       <c r="E195" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="F195" s="14"/>
+      <c r="F195" s="22" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="11" t="s">
@@ -8094,7 +9669,9 @@
       <c r="E196" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="F196" s="14"/>
+      <c r="F196" s="22" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="11" t="s">
@@ -8112,7 +9689,9 @@
       <c r="E197" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="F197" s="14"/>
+      <c r="F197" s="22" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="11" t="s">
@@ -8130,7 +9709,9 @@
       <c r="E198" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="F198" s="14"/>
+      <c r="F198" s="22" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="11" t="s">
@@ -8148,7 +9729,9 @@
       <c r="E199" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="F199" s="14"/>
+      <c r="F199" s="22" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="11" t="s">
@@ -8166,7 +9749,9 @@
       <c r="E200" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="F200" s="14"/>
+      <c r="F200" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="11" t="s">
@@ -8184,7 +9769,9 @@
       <c r="E201" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="F201" s="14"/>
+      <c r="F201" s="5" t="s">
+        <v>1363</v>
+      </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="11" t="s">
@@ -8202,7 +9789,9 @@
       <c r="E202" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="F202" s="14"/>
+      <c r="F202" s="5" t="s">
+        <v>1364</v>
+      </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="11" t="s">
@@ -8220,7 +9809,9 @@
       <c r="E203" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="F203" s="14"/>
+      <c r="F203" s="5" t="s">
+        <v>1365</v>
+      </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="11" t="s">
@@ -8238,7 +9829,9 @@
       <c r="E204" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="F204" s="14"/>
+      <c r="F204" s="5" t="s">
+        <v>1366</v>
+      </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="11" t="s">
@@ -8256,7 +9849,9 @@
       <c r="E205" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="F205" s="14"/>
+      <c r="F205" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="11" t="s">
@@ -8274,7 +9869,9 @@
       <c r="E206" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="F206" s="14"/>
+      <c r="F206" s="10" t="s">
+        <v>1367</v>
+      </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="11" t="s">
@@ -8292,7 +9889,9 @@
       <c r="E207" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="F207" s="14"/>
+      <c r="F207" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="11" t="s">
@@ -8310,7 +9909,9 @@
       <c r="E208" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="F208" s="14"/>
+      <c r="F208" s="22" t="s">
+        <v>1368</v>
+      </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="11" t="s">
@@ -8328,7 +9929,9 @@
       <c r="E209" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="F209" s="14"/>
+      <c r="F209" s="22" t="s">
+        <v>1369</v>
+      </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="11" t="s">
@@ -8346,7 +9949,9 @@
       <c r="E210" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="F210" s="14"/>
+      <c r="F210" s="22" t="s">
+        <v>1370</v>
+      </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="11" t="s">
@@ -8364,7 +9969,9 @@
       <c r="E211" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="F211" s="14"/>
+      <c r="F211" s="22" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="11" t="s">
@@ -8382,7 +9989,9 @@
       <c r="E212" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="F212" s="14"/>
+      <c r="F212" s="22" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="11" t="s">
@@ -8400,7 +10009,9 @@
       <c r="E213" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="F213" s="14"/>
+      <c r="F213" s="22" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="11" t="s">
@@ -8418,7 +10029,9 @@
       <c r="E214" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="F214" s="14"/>
+      <c r="F214" s="22" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="11" t="s">
@@ -8436,7 +10049,9 @@
       <c r="E215" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="F215" s="14"/>
+      <c r="F215" s="5" t="s">
+        <v>1371</v>
+      </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="11" t="s">
@@ -8454,7 +10069,9 @@
       <c r="E216" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="F216" s="14"/>
+      <c r="F216" s="5" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="11" t="s">
@@ -8472,7 +10089,9 @@
       <c r="E217" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="F217" s="14"/>
+      <c r="F217" s="5" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="11" t="s">
@@ -8490,7 +10109,9 @@
       <c r="E218" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="F218" s="14"/>
+      <c r="F218" s="25" t="s">
+        <v>1372</v>
+      </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="11" t="s">
@@ -8508,7 +10129,9 @@
       <c r="E219" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="F219" s="14"/>
+      <c r="F219" s="5" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="11" t="s">
@@ -8526,7 +10149,9 @@
       <c r="E220" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="F220" s="14"/>
+      <c r="F220" s="22" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="11" t="s">
@@ -8544,7 +10169,9 @@
       <c r="E221" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="F221" s="14"/>
+      <c r="F221" s="22" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="11" t="s">
@@ -8562,7 +10189,9 @@
       <c r="E222" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="F222" s="14"/>
+      <c r="F222" s="22" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="11" t="s">
@@ -8580,7 +10209,9 @@
       <c r="E223" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="F223" s="14"/>
+      <c r="F223" s="5" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="11" t="s">
@@ -8598,7 +10229,9 @@
       <c r="E224" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="F224" s="14"/>
+      <c r="F224" s="5" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="11" t="s">
@@ -8616,7 +10249,9 @@
       <c r="E225" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="F225" s="14"/>
+      <c r="F225" s="5" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="11" t="s">
@@ -8634,7 +10269,9 @@
       <c r="E226" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="F226" s="14"/>
+      <c r="F226" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="11" t="s">
@@ -8652,7 +10289,9 @@
       <c r="E227" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="F227" s="14"/>
+      <c r="F227" s="5" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="11" t="s">
@@ -8670,7 +10309,9 @@
       <c r="E228" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="F228" s="14"/>
+      <c r="F228" s="5" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="11" t="s">
@@ -8688,7 +10329,9 @@
       <c r="E229" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="F229" s="14"/>
+      <c r="F229" s="6" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="11" t="s">
@@ -8706,7 +10349,9 @@
       <c r="E230" s="6" t="s">
         <v>1221</v>
       </c>
-      <c r="F230" s="14"/>
+      <c r="F230" s="6" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="11" t="s">
@@ -8724,7 +10369,9 @@
       <c r="E231" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="F231" s="14"/>
+      <c r="F231" s="22" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="11" t="s">
@@ -8742,7 +10389,9 @@
       <c r="E232" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="F232" s="14"/>
+      <c r="F232" s="25" t="s">
+        <v>1375</v>
+      </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="11" t="s">
@@ -8760,7 +10409,9 @@
       <c r="E233" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="F233" s="14"/>
+      <c r="F233" s="25" t="s">
+        <v>1376</v>
+      </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="11" t="s">
@@ -8778,7 +10429,9 @@
       <c r="E234" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="F234" s="14"/>
+      <c r="F234" s="5" t="s">
+        <v>1377</v>
+      </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="11" t="s">
@@ -8796,7 +10449,9 @@
       <c r="E235" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="F235" s="14"/>
+      <c r="F235" s="5" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="11" t="s">
@@ -8814,7 +10469,9 @@
       <c r="E236" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="F236" s="14"/>
+      <c r="F236" s="22" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="11" t="s">
@@ -8832,7 +10489,9 @@
       <c r="E237" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="F237" s="14"/>
+      <c r="F237" s="5" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="11" t="s">
@@ -8850,7 +10509,9 @@
       <c r="E238" s="9" t="s">
         <v>1219</v>
       </c>
-      <c r="F238" s="14"/>
+      <c r="F238" s="22" t="s">
+        <v>1378</v>
+      </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="11" t="s">
@@ -8868,7 +10529,9 @@
       <c r="E239" s="9" t="s">
         <v>1220</v>
       </c>
-      <c r="F239" s="14"/>
+      <c r="F239" s="22" t="s">
+        <v>1379</v>
+      </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="11" t="s">
@@ -8886,7 +10549,9 @@
       <c r="E240" s="9" t="s">
         <v>1219</v>
       </c>
-      <c r="F240" s="14"/>
+      <c r="F240" s="22" t="s">
+        <v>1380</v>
+      </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="11" t="s">
@@ -8904,7 +10569,9 @@
       <c r="E241" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="F241" s="14"/>
+      <c r="F241" s="6" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="11" t="s">
@@ -8922,7 +10589,9 @@
       <c r="E242" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="F242" s="14"/>
+      <c r="F242" s="6" t="s">
+        <v>1381</v>
+      </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="11" t="s">
@@ -8940,7 +10609,9 @@
       <c r="E243" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="F243" s="14"/>
+      <c r="F243" s="6" t="s">
+        <v>1382</v>
+      </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="11" t="s">
@@ -8958,7 +10629,9 @@
       <c r="E244" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="F244" s="14"/>
+      <c r="F244" s="5" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="11" t="s">
@@ -8976,7 +10649,9 @@
       <c r="E245" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="F245" s="14"/>
+      <c r="F245" s="5" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="11" t="s">
@@ -8994,7 +10669,9 @@
       <c r="E246" s="11" t="s">
         <v>663</v>
       </c>
-      <c r="F246" s="14"/>
+      <c r="F246" s="22" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="11" t="s">
@@ -9012,7 +10689,9 @@
       <c r="E247" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="F247" s="14"/>
+      <c r="F247" s="22" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="11" t="s">
@@ -9030,7 +10709,9 @@
       <c r="E248" s="11" t="s">
         <v>665</v>
       </c>
-      <c r="F248" s="14"/>
+      <c r="F248" s="22" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="11" t="s">
@@ -9048,7 +10729,9 @@
       <c r="E249" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="F249" s="14"/>
+      <c r="F249" s="22" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="11" t="s">
@@ -9066,7 +10749,9 @@
       <c r="E250" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="F250" s="14"/>
+      <c r="F250" s="22" t="s">
+        <v>1387</v>
+      </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="11" t="s">
@@ -9084,7 +10769,9 @@
       <c r="E251" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F251" s="14"/>
+      <c r="F251" s="22" t="s">
+        <v>1388</v>
+      </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="11" t="s">
@@ -9102,7 +10789,9 @@
       <c r="E252" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="F252" s="14"/>
+      <c r="F252" s="22" t="s">
+        <v>1389</v>
+      </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="11" t="s">
@@ -9120,7 +10809,9 @@
       <c r="E253" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="F253" s="14"/>
+      <c r="F253" s="22" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="11" t="s">
@@ -9138,7 +10829,9 @@
       <c r="E254" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="F254" s="14"/>
+      <c r="F254" s="22" t="s">
+        <v>1391</v>
+      </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="11" t="s">
@@ -9156,7 +10849,9 @@
       <c r="E255" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="F255" s="14"/>
+      <c r="F255" s="22" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="11" t="s">
@@ -9174,7 +10869,9 @@
       <c r="E256" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="F256" s="14"/>
+      <c r="F256" s="22" t="s">
+        <v>1393</v>
+      </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="11" t="s">
@@ -9192,7 +10889,9 @@
       <c r="E257" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="F257" s="14"/>
+      <c r="F257" s="22" t="s">
+        <v>1394</v>
+      </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="11" t="s">
@@ -9210,7 +10909,9 @@
       <c r="E258" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="F258" s="14"/>
+      <c r="F258" s="22" t="s">
+        <v>1395</v>
+      </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="11" t="s">
@@ -9228,7 +10929,9 @@
       <c r="E259" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="F259" s="14"/>
+      <c r="F259" s="22" t="s">
+        <v>1396</v>
+      </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="11" t="s">
@@ -9246,7 +10949,9 @@
       <c r="E260" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="F260" s="14"/>
+      <c r="F260" s="22" t="s">
+        <v>1397</v>
+      </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="11" t="s">
@@ -9264,7 +10969,9 @@
       <c r="E261" s="11" t="s">
         <v>677</v>
       </c>
-      <c r="F261" s="14"/>
+      <c r="F261" s="22" t="s">
+        <v>1398</v>
+      </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="11" t="s">
@@ -9282,7 +10989,9 @@
       <c r="E262" s="11" t="s">
         <v>678</v>
       </c>
-      <c r="F262" s="14"/>
+      <c r="F262" s="22" t="s">
+        <v>1399</v>
+      </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="11" t="s">
@@ -9300,7 +11009,9 @@
       <c r="E263" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="F263" s="14"/>
+      <c r="F263" s="22" t="s">
+        <v>1400</v>
+      </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="11" t="s">
@@ -9318,7 +11029,9 @@
       <c r="E264" s="11" t="s">
         <v>680</v>
       </c>
-      <c r="F264" s="14"/>
+      <c r="F264" s="22" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="11" t="s">
@@ -9336,7 +11049,9 @@
       <c r="E265" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="F265" s="14"/>
+      <c r="F265" s="22" t="s">
+        <v>1402</v>
+      </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="11" t="s">
@@ -9354,7 +11069,9 @@
       <c r="E266" s="11" t="s">
         <v>682</v>
       </c>
-      <c r="F266" s="14"/>
+      <c r="F266" s="22" t="s">
+        <v>1403</v>
+      </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="11" t="s">
@@ -9372,7 +11089,9 @@
       <c r="E267" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="F267" s="14"/>
+      <c r="F267" s="22" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="11" t="s">
@@ -9390,7 +11109,9 @@
       <c r="E268" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="F268" s="14"/>
+      <c r="F268" s="22" t="s">
+        <v>1405</v>
+      </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="11" t="s">
@@ -9408,7 +11129,9 @@
       <c r="E269" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="F269" s="14"/>
+      <c r="F269" s="22" t="s">
+        <v>1406</v>
+      </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="11" t="s">
@@ -9426,7 +11149,9 @@
       <c r="E270" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="F270" s="14"/>
+      <c r="F270" s="22" t="s">
+        <v>1407</v>
+      </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="11" t="s">
@@ -9444,7 +11169,9 @@
       <c r="E271" s="11" t="s">
         <v>687</v>
       </c>
-      <c r="F271" s="14"/>
+      <c r="F271" s="22" t="s">
+        <v>1407</v>
+      </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="11" t="s">
@@ -9462,7 +11189,9 @@
       <c r="E272" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="F272" s="14"/>
+      <c r="F272" s="22" t="s">
+        <v>1408</v>
+      </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="11" t="s">
@@ -9480,7 +11209,9 @@
       <c r="E273" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="F273" s="14"/>
+      <c r="F273" s="22" t="s">
+        <v>1409</v>
+      </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="11" t="s">
@@ -9498,7 +11229,9 @@
       <c r="E274" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="F274" s="14"/>
+      <c r="F274" s="22" t="s">
+        <v>1410</v>
+      </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="11" t="s">
@@ -9516,7 +11249,9 @@
       <c r="E275" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="F275" s="14"/>
+      <c r="F275" s="22" t="s">
+        <v>1411</v>
+      </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="11" t="s">
@@ -9534,7 +11269,9 @@
       <c r="E276" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="F276" s="14"/>
+      <c r="F276" s="22" t="s">
+        <v>1412</v>
+      </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="11" t="s">
@@ -9552,7 +11289,9 @@
       <c r="E277" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="F277" s="14"/>
+      <c r="F277" s="22" t="s">
+        <v>1413</v>
+      </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="11" t="s">
@@ -9570,7 +11309,9 @@
       <c r="E278" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="F278" s="14"/>
+      <c r="F278" s="22" t="s">
+        <v>1414</v>
+      </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="11" t="s">
@@ -9588,7 +11329,9 @@
       <c r="E279" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="F279" s="14"/>
+      <c r="F279" s="22" t="s">
+        <v>1415</v>
+      </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="11" t="s">
@@ -9606,7 +11349,9 @@
       <c r="E280" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="F280" s="14"/>
+      <c r="F280" s="22" t="s">
+        <v>1416</v>
+      </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="11" t="s">
@@ -9624,7 +11369,9 @@
       <c r="E281" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="F281" s="14"/>
+      <c r="F281" s="22" t="s">
+        <v>1417</v>
+      </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="11" t="s">
@@ -9642,7 +11389,9 @@
       <c r="E282" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="F282" s="14"/>
+      <c r="F282" s="22" t="s">
+        <v>1418</v>
+      </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="11" t="s">
@@ -9660,7 +11409,9 @@
       <c r="E283" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="F283" s="14"/>
+      <c r="F283" s="22" t="s">
+        <v>1419</v>
+      </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="11" t="s">
@@ -9678,7 +11429,9 @@
       <c r="E284" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="F284" s="14"/>
+      <c r="F284" s="22" t="s">
+        <v>1420</v>
+      </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="11" t="s">
@@ -9696,7 +11449,9 @@
       <c r="E285" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="F285" s="14"/>
+      <c r="F285" s="22" t="s">
+        <v>1421</v>
+      </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="11" t="s">
@@ -9714,7 +11469,9 @@
       <c r="E286" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="F286" s="14"/>
+      <c r="F286" s="22" t="s">
+        <v>1422</v>
+      </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="11" t="s">
@@ -9732,7 +11489,9 @@
       <c r="E287" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="F287" s="14"/>
+      <c r="F287" s="22" t="s">
+        <v>1423</v>
+      </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="11" t="s">
@@ -9750,7 +11509,9 @@
       <c r="E288" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="F288" s="14"/>
+      <c r="F288" s="22" t="s">
+        <v>1424</v>
+      </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="11" t="s">
@@ -9768,7 +11529,9 @@
       <c r="E289" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F289" s="14"/>
+      <c r="F289" s="22" t="s">
+        <v>1340</v>
+      </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="11" t="s">
@@ -9786,7 +11549,9 @@
       <c r="E290" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="F290" s="14"/>
+      <c r="F290" s="22" t="s">
+        <v>1425</v>
+      </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="11" t="s">
@@ -9804,7 +11569,9 @@
       <c r="E291" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="F291" s="14"/>
+      <c r="F291" s="22" t="s">
+        <v>1426</v>
+      </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="11" t="s">
@@ -9822,7 +11589,9 @@
       <c r="E292" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="F292" s="14"/>
+      <c r="F292" s="22" t="s">
+        <v>1427</v>
+      </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="11" t="s">
@@ -9840,7 +11609,9 @@
       <c r="E293" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="F293" s="14"/>
+      <c r="F293" s="22" t="s">
+        <v>1428</v>
+      </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="11" t="s">
@@ -9858,7 +11629,9 @@
       <c r="E294" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="F294" s="14"/>
+      <c r="F294" s="22" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="11" t="s">
@@ -9876,7 +11649,9 @@
       <c r="E295" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="F295" s="14"/>
+      <c r="F295" s="22" t="s">
+        <v>1430</v>
+      </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="11" t="s">
@@ -9894,7 +11669,9 @@
       <c r="E296" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="F296" s="14"/>
+      <c r="F296" s="22" t="s">
+        <v>1431</v>
+      </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="11" t="s">
@@ -9912,7 +11689,9 @@
       <c r="E297" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="F297" s="14"/>
+      <c r="F297" s="22" t="s">
+        <v>1432</v>
+      </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="11" t="s">
@@ -9930,7 +11709,9 @@
       <c r="E298" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="F298" s="14"/>
+      <c r="F298" s="22" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="11" t="s">
@@ -9948,7 +11729,9 @@
       <c r="E299" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="F299" s="14"/>
+      <c r="F299" s="22" t="s">
+        <v>1434</v>
+      </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="11" t="s">
@@ -9966,7 +11749,9 @@
       <c r="E300" s="11" t="s">
         <v>714</v>
       </c>
-      <c r="F300" s="14"/>
+      <c r="F300" s="22" t="s">
+        <v>1435</v>
+      </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="11" t="s">
@@ -9984,7 +11769,9 @@
       <c r="E301" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="F301" s="14"/>
+      <c r="F301" s="22" t="s">
+        <v>1359</v>
+      </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="11" t="s">
@@ -10002,7 +11789,9 @@
       <c r="E302" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="F302" s="14"/>
+      <c r="F302" s="22" t="s">
+        <v>1436</v>
+      </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="11" t="s">
@@ -10020,7 +11809,9 @@
       <c r="E303" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="F303" s="14"/>
+      <c r="F303" s="22" t="s">
+        <v>1437</v>
+      </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="11" t="s">
@@ -10038,7 +11829,9 @@
       <c r="E304" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="F304" s="14"/>
+      <c r="F304" s="22" t="s">
+        <v>1438</v>
+      </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="11" t="s">
@@ -10056,7 +11849,9 @@
       <c r="E305" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="F305" s="14"/>
+      <c r="F305" s="22" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="11" t="s">
@@ -10074,7 +11869,9 @@
       <c r="E306" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="F306" s="14"/>
+      <c r="F306" s="22" t="s">
+        <v>1440</v>
+      </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="11" t="s">
@@ -10092,7 +11889,9 @@
       <c r="E307" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="F307" s="14"/>
+      <c r="F307" s="22" t="s">
+        <v>1441</v>
+      </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="11" t="s">
@@ -10110,7 +11909,9 @@
       <c r="E308" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="F308" s="14"/>
+      <c r="F308" s="23" t="s">
+        <v>1442</v>
+      </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="11" t="s">
@@ -10128,7 +11929,9 @@
       <c r="E309" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="F309" s="14"/>
+      <c r="F309" s="22" t="s">
+        <v>1443</v>
+      </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="11" t="s">
@@ -10146,7 +11949,9 @@
       <c r="E310" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="F310" s="14"/>
+      <c r="F310" s="22" t="s">
+        <v>1444</v>
+      </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="11" t="s">
@@ -10164,7 +11969,9 @@
       <c r="E311" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="F311" s="14"/>
+      <c r="F311" s="22" t="s">
+        <v>1445</v>
+      </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="11" t="s">
@@ -10182,7 +11989,9 @@
       <c r="E312" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="F312" s="14"/>
+      <c r="F312" s="22" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="11" t="s">
@@ -10200,7 +12009,9 @@
       <c r="E313" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="F313" s="14"/>
+      <c r="F313" s="22" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="11" t="s">
@@ -10218,7 +12029,9 @@
       <c r="E314" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="F314" s="14"/>
+      <c r="F314" s="22" t="s">
+        <v>1447</v>
+      </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="11" t="s">
@@ -10236,7 +12049,9 @@
       <c r="E315" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="F315" s="14"/>
+      <c r="F315" s="22" t="s">
+        <v>1448</v>
+      </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="11" t="s">
@@ -10254,7 +12069,9 @@
       <c r="E316" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F316" s="14"/>
+      <c r="F316" s="22" t="s">
+        <v>1449</v>
+      </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="11" t="s">
@@ -10272,7 +12089,9 @@
       <c r="E317" s="11" t="s">
         <v>730</v>
       </c>
-      <c r="F317" s="14"/>
+      <c r="F317" s="22" t="s">
+        <v>1450</v>
+      </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="11" t="s">
@@ -10290,7 +12109,9 @@
       <c r="E318" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="F318" s="14"/>
+      <c r="F318" s="22" t="s">
+        <v>1451</v>
+      </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="11" t="s">
@@ -10308,7 +12129,9 @@
       <c r="E319" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F319" s="14"/>
+      <c r="F319" s="22" t="s">
+        <v>1388</v>
+      </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="11" t="s">
@@ -10326,7 +12149,9 @@
       <c r="E320" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="F320" s="14"/>
+      <c r="F320" s="22" t="s">
+        <v>1452</v>
+      </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="11" t="s">
@@ -10344,7 +12169,9 @@
       <c r="E321" s="11" t="s">
         <v>733</v>
       </c>
-      <c r="F321" s="14"/>
+      <c r="F321" s="22" t="s">
+        <v>1453</v>
+      </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="11" t="s">
@@ -10362,7 +12189,9 @@
       <c r="E322" s="11" t="s">
         <v>734</v>
       </c>
-      <c r="F322" s="14"/>
+      <c r="F322" s="22" t="s">
+        <v>1454</v>
+      </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="11" t="s">
@@ -10380,7 +12209,9 @@
       <c r="E323" s="11" t="s">
         <v>735</v>
       </c>
-      <c r="F323" s="14"/>
+      <c r="F323" s="22" t="s">
+        <v>1454</v>
+      </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="11" t="s">
@@ -10398,7 +12229,9 @@
       <c r="E324" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F324" s="14"/>
+      <c r="F324" s="22" t="s">
+        <v>1455</v>
+      </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="11" t="s">
@@ -10416,7 +12249,9 @@
       <c r="E325" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="F325" s="14"/>
+      <c r="F325" s="22" t="s">
+        <v>1456</v>
+      </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="11" t="s">
@@ -10434,7 +12269,9 @@
       <c r="E326" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="F326" s="14"/>
+      <c r="F326" s="22" t="s">
+        <v>1457</v>
+      </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="11" t="s">
@@ -10452,7 +12289,9 @@
       <c r="E327" s="11" t="s">
         <v>738</v>
       </c>
-      <c r="F327" s="14"/>
+      <c r="F327" s="22" t="s">
+        <v>1458</v>
+      </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="11" t="s">
@@ -10470,7 +12309,9 @@
       <c r="E328" s="11" t="s">
         <v>739</v>
       </c>
-      <c r="F328" s="14"/>
+      <c r="F328" s="22" t="s">
+        <v>1459</v>
+      </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="11" t="s">
@@ -10488,7 +12329,9 @@
       <c r="E329" s="11" t="s">
         <v>740</v>
       </c>
-      <c r="F329" s="14"/>
+      <c r="F329" s="22" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="11" t="s">
@@ -10506,7 +12349,9 @@
       <c r="E330" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="F330" s="14"/>
+      <c r="F330" s="22" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="11" t="s">
@@ -10524,7 +12369,9 @@
       <c r="E331" s="11" t="s">
         <v>741</v>
       </c>
-      <c r="F331" s="14"/>
+      <c r="F331" s="22" t="s">
+        <v>1461</v>
+      </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="11" t="s">
@@ -10542,7 +12389,9 @@
       <c r="E332" s="11" t="s">
         <v>742</v>
       </c>
-      <c r="F332" s="14"/>
+      <c r="F332" s="22" t="s">
+        <v>1462</v>
+      </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="11" t="s">
@@ -10560,7 +12409,9 @@
       <c r="E333" s="11" t="s">
         <v>743</v>
       </c>
-      <c r="F333" s="14"/>
+      <c r="F333" s="22" t="s">
+        <v>1463</v>
+      </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="11" t="s">
@@ -10578,7 +12429,9 @@
       <c r="E334" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="F334" s="14"/>
+      <c r="F334" s="22" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="11" t="s">
@@ -10596,7 +12449,9 @@
       <c r="E335" s="11" t="s">
         <v>745</v>
       </c>
-      <c r="F335" s="14"/>
+      <c r="F335" s="22" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="11" t="s">
@@ -10614,7 +12469,9 @@
       <c r="E336" s="11" t="s">
         <v>746</v>
       </c>
-      <c r="F336" s="14"/>
+      <c r="F336" s="22" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="11" t="s">
@@ -10632,7 +12489,9 @@
       <c r="E337" s="11" t="s">
         <v>747</v>
       </c>
-      <c r="F337" s="14"/>
+      <c r="F337" s="22" t="s">
+        <v>1466</v>
+      </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="11" t="s">
@@ -10650,7 +12509,9 @@
       <c r="E338" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="F338" s="14"/>
+      <c r="F338" s="22" t="s">
+        <v>1467</v>
+      </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="11" t="s">
@@ -10668,7 +12529,9 @@
       <c r="E339" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="F339" s="14"/>
+      <c r="F339" s="22" t="s">
+        <v>1413</v>
+      </c>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="11" t="s">
@@ -10686,7 +12549,9 @@
       <c r="E340" s="11" t="s">
         <v>749</v>
       </c>
-      <c r="F340" s="14"/>
+      <c r="F340" s="22" t="s">
+        <v>1468</v>
+      </c>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="11" t="s">
@@ -10704,7 +12569,9 @@
       <c r="E341" s="11" t="s">
         <v>750</v>
       </c>
-      <c r="F341" s="14"/>
+      <c r="F341" s="22" t="s">
+        <v>1469</v>
+      </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="11" t="s">
@@ -10722,7 +12589,9 @@
       <c r="E342" s="11" t="s">
         <v>751</v>
       </c>
-      <c r="F342" s="14"/>
+      <c r="F342" s="22" t="s">
+        <v>1470</v>
+      </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="11" t="s">
@@ -10740,7 +12609,9 @@
       <c r="E343" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="F343" s="14"/>
+      <c r="F343" s="22" t="s">
+        <v>1471</v>
+      </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="11" t="s">
@@ -10758,7 +12629,9 @@
       <c r="E344" s="11" t="s">
         <v>753</v>
       </c>
-      <c r="F344" s="14"/>
+      <c r="F344" s="22" t="s">
+        <v>1472</v>
+      </c>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="11" t="s">
@@ -10776,7 +12649,9 @@
       <c r="E345" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="F345" s="14"/>
+      <c r="F345" s="22" t="s">
+        <v>1473</v>
+      </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="11" t="s">
@@ -10794,7 +12669,9 @@
       <c r="E346" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="F346" s="14"/>
+      <c r="F346" s="22" t="s">
+        <v>1474</v>
+      </c>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="11" t="s">
@@ -10812,7 +12689,9 @@
       <c r="E347" s="11" t="s">
         <v>756</v>
       </c>
-      <c r="F347" s="14"/>
+      <c r="F347" s="22" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="11" t="s">
@@ -10830,7 +12709,9 @@
       <c r="E348" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="F348" s="14"/>
+      <c r="F348" s="22" t="s">
+        <v>1475</v>
+      </c>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="11" t="s">
@@ -10848,7 +12729,9 @@
       <c r="E349" s="11" t="s">
         <v>757</v>
       </c>
-      <c r="F349" s="14"/>
+      <c r="F349" s="22" t="s">
+        <v>1476</v>
+      </c>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="11" t="s">
@@ -10866,7 +12749,9 @@
       <c r="E350" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="F350" s="14"/>
+      <c r="F350" s="22" t="s">
+        <v>1477</v>
+      </c>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="11" t="s">
@@ -10884,7 +12769,9 @@
       <c r="E351" s="11" t="s">
         <v>759</v>
       </c>
-      <c r="F351" s="14"/>
+      <c r="F351" s="22" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="11" t="s">
@@ -10902,7 +12789,9 @@
       <c r="E352" s="11" t="s">
         <v>760</v>
       </c>
-      <c r="F352" s="14"/>
+      <c r="F352" s="22" t="s">
+        <v>1479</v>
+      </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="11" t="s">
@@ -10920,7 +12809,9 @@
       <c r="E353" s="11" t="s">
         <v>761</v>
       </c>
-      <c r="F353" s="14"/>
+      <c r="F353" s="22" t="s">
+        <v>1480</v>
+      </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="11" t="s">
@@ -10938,7 +12829,9 @@
       <c r="E354" s="11" t="s">
         <v>762</v>
       </c>
-      <c r="F354" s="14"/>
+      <c r="F354" s="22" t="s">
+        <v>1481</v>
+      </c>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="11" t="s">
@@ -10956,7 +12849,9 @@
       <c r="E355" s="11" t="s">
         <v>763</v>
       </c>
-      <c r="F355" s="14"/>
+      <c r="F355" s="22" t="s">
+        <v>1482</v>
+      </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="11" t="s">
@@ -10974,7 +12869,9 @@
       <c r="E356" s="11" t="s">
         <v>764</v>
       </c>
-      <c r="F356" s="14"/>
+      <c r="F356" s="22" t="s">
+        <v>1483</v>
+      </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="11" t="s">
@@ -10992,7 +12889,9 @@
       <c r="E357" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F357" s="14"/>
+      <c r="F357" s="22" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="11" t="s">
@@ -11010,7 +12909,9 @@
       <c r="E358" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="F358" s="14"/>
+      <c r="F358" s="22" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="11" t="s">
@@ -11028,7 +12929,9 @@
       <c r="E359" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="F359" s="14"/>
+      <c r="F359" s="22" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="11" t="s">
@@ -11046,7 +12949,9 @@
       <c r="E360" s="11" t="s">
         <v>768</v>
       </c>
-      <c r="F360" s="14"/>
+      <c r="F360" s="22" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="11" t="s">
@@ -11064,7 +12969,9 @@
       <c r="E361" s="11" t="s">
         <v>769</v>
       </c>
-      <c r="F361" s="14"/>
+      <c r="F361" s="22" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="11" t="s">
@@ -11082,7 +12989,9 @@
       <c r="E362" s="11" t="s">
         <v>770</v>
       </c>
-      <c r="F362" s="14"/>
+      <c r="F362" s="22" t="s">
+        <v>1484</v>
+      </c>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="11" t="s">
@@ -11100,7 +13009,9 @@
       <c r="E363" s="11" t="s">
         <v>771</v>
       </c>
-      <c r="F363" s="14"/>
+      <c r="F363" s="22" t="s">
+        <v>1485</v>
+      </c>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="11" t="s">
@@ -11118,7 +13029,9 @@
       <c r="E364" s="11" t="s">
         <v>772</v>
       </c>
-      <c r="F364" s="14"/>
+      <c r="F364" s="22" t="s">
+        <v>1486</v>
+      </c>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="11" t="s">
@@ -11136,7 +13049,9 @@
       <c r="E365" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F365" s="14"/>
+      <c r="F365" s="22" t="s">
+        <v>1487</v>
+      </c>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="11" t="s">
@@ -11154,7 +13069,9 @@
       <c r="E366" s="11" t="s">
         <v>773</v>
       </c>
-      <c r="F366" s="14"/>
+      <c r="F366" s="22" t="s">
+        <v>1488</v>
+      </c>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="11" t="s">
@@ -11172,7 +13089,9 @@
       <c r="E367" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F367" s="14"/>
+      <c r="F367" s="22" t="s">
+        <v>1365</v>
+      </c>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="11" t="s">
@@ -11190,7 +13109,9 @@
       <c r="E368" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F368" s="14"/>
+      <c r="F368" s="22" t="s">
+        <v>1366</v>
+      </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="11" t="s">
@@ -11208,7 +13129,9 @@
       <c r="E369" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F369" s="14"/>
+      <c r="F369" s="22" t="s">
+        <v>1489</v>
+      </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="11" t="s">
@@ -11226,7 +13149,9 @@
       <c r="E370" s="11" t="s">
         <v>774</v>
       </c>
-      <c r="F370" s="14"/>
+      <c r="F370" s="22" t="s">
+        <v>1490</v>
+      </c>
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="11" t="s">
@@ -11244,7 +13169,9 @@
       <c r="E371" s="11" t="s">
         <v>775</v>
       </c>
-      <c r="F371" s="14"/>
+      <c r="F371" s="22" t="s">
+        <v>1491</v>
+      </c>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="11" t="s">
@@ -11262,7 +13189,9 @@
       <c r="E372" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="F372" s="14"/>
+      <c r="F372" s="22" t="s">
+        <v>1411</v>
+      </c>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="11" t="s">
@@ -11280,7 +13209,9 @@
       <c r="E373" s="11" t="s">
         <v>1234</v>
       </c>
-      <c r="F373" s="14"/>
+      <c r="F373" s="22" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1" t="s">
@@ -11298,7 +13229,7 @@
       <c r="E374" s="11" t="s">
         <v>1209</v>
       </c>
-      <c r="F374" s="14"/>
+      <c r="F374" s="22"/>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="11" t="s">
@@ -11316,7 +13247,7 @@
       <c r="E375" s="11" t="s">
         <v>1210</v>
       </c>
-      <c r="F375" s="14"/>
+      <c r="F375" s="22"/>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="11" t="s">
@@ -11334,31 +13265,33 @@
       <c r="E376" s="11" t="s">
         <v>1211</v>
       </c>
-      <c r="F376" s="14"/>
+      <c r="F376" s="22"/>
     </row>
     <row r="377" spans="1:6">
-      <c r="A377" s="15"/>
-      <c r="B377" s="15"/>
-      <c r="C377" s="15"/>
-      <c r="D377" s="15"/>
-      <c r="E377" s="15"/>
-      <c r="F377" s="14"/>
+      <c r="A377" s="13"/>
+      <c r="B377" s="13"/>
+      <c r="C377" s="13"/>
+      <c r="D377" s="13"/>
+      <c r="E377" s="13"/>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="11" t="s">
         <v>1205</v>
       </c>
-      <c r="B378" s="15" t="s">
+      <c r="B378" s="13" t="s">
         <v>1249</v>
       </c>
-      <c r="C378" s="15" t="s">
+      <c r="C378" s="13" t="s">
         <v>1264</v>
       </c>
-      <c r="D378" s="15" t="s">
+      <c r="D378" s="13" t="s">
         <v>1256</v>
       </c>
-      <c r="E378" s="16" t="s">
+      <c r="E378" s="14" t="s">
         <v>1256</v>
+      </c>
+      <c r="F378" s="26" t="s">
+        <v>1493</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -11374,8 +13307,11 @@
       <c r="D379" s="11" t="s">
         <v>1257</v>
       </c>
-      <c r="E379" s="17" t="s">
+      <c r="E379" s="15" t="s">
         <v>1257</v>
+      </c>
+      <c r="F379" s="27" t="s">
+        <v>1494</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -11391,8 +13327,11 @@
       <c r="D380" s="11" t="s">
         <v>1258</v>
       </c>
-      <c r="E380" s="17" t="s">
+      <c r="E380" s="15" t="s">
         <v>1258</v>
+      </c>
+      <c r="F380" s="28" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -11408,8 +13347,11 @@
       <c r="D381" s="11" t="s">
         <v>1259</v>
       </c>
-      <c r="E381" s="17" t="s">
+      <c r="E381" s="15" t="s">
         <v>1259</v>
+      </c>
+      <c r="F381" s="28" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -11425,8 +13367,11 @@
       <c r="D382" s="11" t="s">
         <v>1260</v>
       </c>
-      <c r="E382" s="17" t="s">
+      <c r="E382" s="15" t="s">
         <v>1260</v>
+      </c>
+      <c r="F382" s="28" t="s">
+        <v>1497</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -11442,79 +13387,94 @@
       <c r="D383" s="11" t="s">
         <v>1261</v>
       </c>
-      <c r="E383" s="17" t="s">
+      <c r="E383" s="15" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" s="18" customFormat="1">
-      <c r="A384" s="18" t="s">
+      <c r="F383" s="28" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" s="16" customFormat="1">
+      <c r="A384" s="16" t="s">
         <v>1205</v>
       </c>
-      <c r="B384" s="18" t="s">
+      <c r="B384" s="16" t="s">
         <v>1255</v>
       </c>
-      <c r="C384" s="18" t="s">
+      <c r="C384" s="16" t="s">
         <v>1270</v>
       </c>
-      <c r="D384" s="18" t="s">
+      <c r="D384" s="16" t="s">
         <v>1262</v>
       </c>
-      <c r="E384" s="19" t="s">
+      <c r="E384" s="17" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="385" spans="1:5">
+      <c r="F384" s="29" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
       <c r="A385" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B385" s="20" t="s">
+      <c r="B385" s="18" t="s">
         <v>1273</v>
       </c>
-      <c r="C385" s="20" t="s">
+      <c r="C385" s="18" t="s">
         <v>1271</v>
       </c>
-      <c r="D385" s="20" t="s">
+      <c r="D385" s="18" t="s">
         <v>1271</v>
       </c>
-      <c r="E385" s="22" t="s">
+      <c r="E385" s="20" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="386" spans="1:5">
+      <c r="F385" s="30" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
       <c r="A386" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B386" s="20" t="s">
+      <c r="B386" s="18" t="s">
         <v>1274</v>
       </c>
-      <c r="C386" s="20" t="s">
+      <c r="C386" s="18" t="s">
         <v>1272</v>
       </c>
-      <c r="D386" s="20" t="s">
+      <c r="D386" s="18" t="s">
         <v>1272</v>
       </c>
-      <c r="E386" s="22" t="s">
+      <c r="E386" s="20" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" s="15" customFormat="1">
+      <c r="F386" s="30" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" s="13" customFormat="1">
       <c r="A387" s="11" t="s">
         <v>1205</v>
       </c>
-      <c r="B387" s="15" t="s">
+      <c r="B387" s="13" t="s">
         <v>1275</v>
       </c>
-      <c r="C387" s="15" t="s">
+      <c r="C387" s="13" t="s">
         <v>1277</v>
       </c>
-      <c r="D387" s="15" t="s">
+      <c r="D387" s="13" t="s">
         <v>1276</v>
       </c>
-      <c r="E387" s="16" t="s">
+      <c r="E387" s="14" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="388" spans="1:5">
+      <c r="F387" s="26" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
       <c r="A388" s="11" t="s">
         <v>1205</v>
       </c>
@@ -11527,11 +13487,14 @@
       <c r="D388" s="11" t="s">
         <v>1280</v>
       </c>
-      <c r="E388" s="17" t="s">
+      <c r="E388" s="15" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="389" spans="1:5">
+      <c r="F388" s="31" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
       <c r="A389" s="11" t="s">
         <v>239</v>
       </c>
@@ -11544,11 +13507,14 @@
       <c r="D389" s="11" t="s">
         <v>1282</v>
       </c>
-      <c r="E389" s="17" t="s">
+      <c r="E389" s="15" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="390" spans="1:5">
+      <c r="F389" s="28" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
       <c r="A390" s="11" t="s">
         <v>1205</v>
       </c>
@@ -11561,11 +13527,14 @@
       <c r="D390" s="11" t="s">
         <v>1285</v>
       </c>
-      <c r="E390" s="17" t="s">
+      <c r="E390" s="15" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="391" spans="1:5">
+      <c r="F390" s="28" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
       <c r="A391" s="11" t="s">
         <v>239</v>
       </c>
@@ -11578,11 +13547,14 @@
       <c r="D391" s="11" t="s">
         <v>1288</v>
       </c>
-      <c r="E391" s="17" t="s">
+      <c r="E391" s="15" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="392" spans="1:5">
+      <c r="F391" s="27" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
       <c r="A392" s="11" t="s">
         <v>239</v>
       </c>
@@ -11595,11 +13567,14 @@
       <c r="D392" s="11" t="s">
         <v>1292</v>
       </c>
-      <c r="E392" s="17" t="s">
+      <c r="E392" s="15" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="393" spans="1:5">
+      <c r="F392" s="32" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
       <c r="A393" s="11" t="s">
         <v>239</v>
       </c>
@@ -11612,15 +13587,18 @@
       <c r="D393" s="11" t="s">
         <v>1295</v>
       </c>
-      <c r="E393" s="17" t="s">
+      <c r="E393" s="15" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="394" spans="1:5">
+      <c r="F393" s="33" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
       <c r="A394" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B394" s="21" t="s">
+      <c r="B394" s="19" t="s">
         <v>1296</v>
       </c>
       <c r="C394" s="11" t="s">
@@ -11629,28 +13607,34 @@
       <c r="D394" s="11" t="s">
         <v>1298</v>
       </c>
-      <c r="E394" s="17" t="s">
+      <c r="E394" s="15" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="395" spans="1:5">
+      <c r="F394" s="32" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
       <c r="A395" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B395" s="21" t="s">
+      <c r="B395" s="19" t="s">
         <v>1299</v>
       </c>
-      <c r="C395" s="21" t="s">
+      <c r="C395" s="19" t="s">
         <v>1300</v>
       </c>
       <c r="D395" s="11" t="s">
         <v>1300</v>
       </c>
-      <c r="E395" s="17" t="s">
+      <c r="E395" s="15" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="396" spans="1:5">
+      <c r="F395" s="32" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
       <c r="A396" s="11" t="s">
         <v>239</v>
       </c>
@@ -11663,11 +13647,14 @@
       <c r="D396" s="11" t="s">
         <v>1303</v>
       </c>
-      <c r="E396" s="17" t="s">
+      <c r="E396" s="15" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="398" spans="1:5">
+      <c r="F396" s="32" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
       <c r="A398" s="11" t="s">
         <v>239</v>
       </c>
@@ -11680,15 +13667,35 @@
       <c r="D398" s="11" t="s">
         <v>1305</v>
       </c>
-      <c r="E398" s="17" t="s">
+      <c r="E398" s="15" t="s">
         <v>1305</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E245"/>
-  <conditionalFormatting sqref="E2:E245">
+  <conditionalFormatting sqref="E2:F245">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="[">
+      <formula>NOT(ISERROR(SEARCH("[",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F275">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="[">
+      <formula>NOT(ISERROR(SEARCH("[",F275)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F326:F329">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="[">
+      <formula>NOT(ISERROR(SEARCH("[",F326)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F357:F361">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="[">
+      <formula>NOT(ISERROR(SEARCH("[",F357)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F347:F351">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="[">
-      <formula>NOT(ISERROR(SEARCH("[",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("[",F347)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TRANS_Japanese Translation-ECOS-MAPS.xlsx
+++ b/TRANS_Japanese Translation-ECOS-MAPS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="1512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="1511">
   <si>
     <t>No frames selected</t>
   </si>
@@ -4143,9 +4143,6 @@
     <t>選択した媒体を表示</t>
   </si>
   <si>
-    <t>該当レコード数合計： x</t>
-  </si>
-  <si>
     <t>エリア</t>
   </si>
   <si>
@@ -4156,15 +4153,6 @@
   </si>
   <si>
     <t>駅</t>
-  </si>
-  <si>
-    <t>媒体 x 個が追加されました</t>
-  </si>
-  <si>
-    <t>x POIが追加されました</t>
-  </si>
-  <si>
-    <t>Shape x 個が追加されました</t>
   </si>
   <si>
     <t>Shapeが選択されていません。 媒体の絞り込みを実行するには、Shapeを作成または選択してください</t>
@@ -4992,6 +4980,15 @@
   </si>
   <si>
     <t>ja (JAPANESE) [Received on Fri 16/10/2015 16:16]</t>
+  </si>
+  <si>
+    <t>媒体 %{count} 個が追加されました</t>
+  </si>
+  <si>
+    <t>%{count} POIが追加されました</t>
+  </si>
+  <si>
+    <t>Shape %{count} 個が追加されました</t>
   </si>
 </sst>
 </file>
@@ -5361,57 +5358,7 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5738,10 +5685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G398"/>
+  <dimension ref="A1:F398"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E360" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5770,7 +5717,7 @@
         <v>434</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10350,7 +10297,7 @@
         <v>1221</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>1373</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -10370,7 +10317,7 @@
         <v>631</v>
       </c>
       <c r="F231" s="22" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -10390,7 +10337,7 @@
         <v>632</v>
       </c>
       <c r="F232" s="25" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -10410,7 +10357,7 @@
         <v>633</v>
       </c>
       <c r="F233" s="25" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -10430,7 +10377,7 @@
         <v>634</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -10510,7 +10457,7 @@
         <v>1219</v>
       </c>
       <c r="F238" s="22" t="s">
-        <v>1378</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -10530,7 +10477,7 @@
         <v>1220</v>
       </c>
       <c r="F239" s="22" t="s">
-        <v>1379</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -10550,7 +10497,7 @@
         <v>1219</v>
       </c>
       <c r="F240" s="22" t="s">
-        <v>1380</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -10590,7 +10537,7 @@
         <v>639</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -10610,7 +10557,7 @@
         <v>638</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -10670,7 +10617,7 @@
         <v>663</v>
       </c>
       <c r="F246" s="22" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -10690,7 +10637,7 @@
         <v>664</v>
       </c>
       <c r="F247" s="22" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -10710,7 +10657,7 @@
         <v>665</v>
       </c>
       <c r="F248" s="22" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -10730,7 +10677,7 @@
         <v>666</v>
       </c>
       <c r="F249" s="22" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -10750,7 +10697,7 @@
         <v>667</v>
       </c>
       <c r="F250" s="22" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -10770,7 +10717,7 @@
         <v>66</v>
       </c>
       <c r="F251" s="22" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -10790,7 +10737,7 @@
         <v>668</v>
       </c>
       <c r="F252" s="22" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -10810,7 +10757,7 @@
         <v>669</v>
       </c>
       <c r="F253" s="22" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -10830,7 +10777,7 @@
         <v>670</v>
       </c>
       <c r="F254" s="22" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -10850,7 +10797,7 @@
         <v>671</v>
       </c>
       <c r="F255" s="22" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -10870,7 +10817,7 @@
         <v>672</v>
       </c>
       <c r="F256" s="22" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -10890,7 +10837,7 @@
         <v>673</v>
       </c>
       <c r="F257" s="22" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -10910,7 +10857,7 @@
         <v>674</v>
       </c>
       <c r="F258" s="22" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -10930,7 +10877,7 @@
         <v>675</v>
       </c>
       <c r="F259" s="22" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -10950,7 +10897,7 @@
         <v>676</v>
       </c>
       <c r="F260" s="22" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -10970,7 +10917,7 @@
         <v>677</v>
       </c>
       <c r="F261" s="22" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -10990,7 +10937,7 @@
         <v>678</v>
       </c>
       <c r="F262" s="22" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -11010,7 +10957,7 @@
         <v>679</v>
       </c>
       <c r="F263" s="22" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -11030,7 +10977,7 @@
         <v>680</v>
       </c>
       <c r="F264" s="22" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -11050,7 +10997,7 @@
         <v>681</v>
       </c>
       <c r="F265" s="22" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -11070,7 +11017,7 @@
         <v>682</v>
       </c>
       <c r="F266" s="22" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -11090,7 +11037,7 @@
         <v>683</v>
       </c>
       <c r="F267" s="22" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -11110,7 +11057,7 @@
         <v>684</v>
       </c>
       <c r="F268" s="22" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -11130,7 +11077,7 @@
         <v>685</v>
       </c>
       <c r="F269" s="22" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -11150,7 +11097,7 @@
         <v>686</v>
       </c>
       <c r="F270" s="22" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -11170,7 +11117,7 @@
         <v>687</v>
       </c>
       <c r="F271" s="22" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -11190,7 +11137,7 @@
         <v>688</v>
       </c>
       <c r="F272" s="22" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -11210,7 +11157,7 @@
         <v>689</v>
       </c>
       <c r="F273" s="22" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -11230,7 +11177,7 @@
         <v>690</v>
       </c>
       <c r="F274" s="22" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -11250,7 +11197,7 @@
         <v>691</v>
       </c>
       <c r="F275" s="22" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -11270,7 +11217,7 @@
         <v>692</v>
       </c>
       <c r="F276" s="22" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -11290,7 +11237,7 @@
         <v>693</v>
       </c>
       <c r="F277" s="22" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -11310,7 +11257,7 @@
         <v>694</v>
       </c>
       <c r="F278" s="22" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -11330,7 +11277,7 @@
         <v>695</v>
       </c>
       <c r="F279" s="22" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -11350,7 +11297,7 @@
         <v>696</v>
       </c>
       <c r="F280" s="22" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -11370,7 +11317,7 @@
         <v>697</v>
       </c>
       <c r="F281" s="22" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -11390,7 +11337,7 @@
         <v>698</v>
       </c>
       <c r="F282" s="22" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -11410,7 +11357,7 @@
         <v>699</v>
       </c>
       <c r="F283" s="22" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -11430,7 +11377,7 @@
         <v>700</v>
       </c>
       <c r="F284" s="22" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -11450,7 +11397,7 @@
         <v>701</v>
       </c>
       <c r="F285" s="22" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -11470,7 +11417,7 @@
         <v>692</v>
       </c>
       <c r="F286" s="22" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -11490,7 +11437,7 @@
         <v>702</v>
       </c>
       <c r="F287" s="22" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -11510,7 +11457,7 @@
         <v>703</v>
       </c>
       <c r="F288" s="22" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -11550,7 +11497,7 @@
         <v>704</v>
       </c>
       <c r="F290" s="22" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -11570,7 +11517,7 @@
         <v>705</v>
       </c>
       <c r="F291" s="22" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -11590,7 +11537,7 @@
         <v>706</v>
       </c>
       <c r="F292" s="22" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -11610,7 +11557,7 @@
         <v>707</v>
       </c>
       <c r="F293" s="22" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -11630,7 +11577,7 @@
         <v>708</v>
       </c>
       <c r="F294" s="22" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -11650,7 +11597,7 @@
         <v>709</v>
       </c>
       <c r="F295" s="22" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -11670,7 +11617,7 @@
         <v>710</v>
       </c>
       <c r="F296" s="22" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -11690,7 +11637,7 @@
         <v>711</v>
       </c>
       <c r="F297" s="22" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -11710,7 +11657,7 @@
         <v>712</v>
       </c>
       <c r="F298" s="22" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -11730,7 +11677,7 @@
         <v>713</v>
       </c>
       <c r="F299" s="22" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -11750,7 +11697,7 @@
         <v>714</v>
       </c>
       <c r="F300" s="22" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -11790,7 +11737,7 @@
         <v>716</v>
       </c>
       <c r="F302" s="22" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -11810,7 +11757,7 @@
         <v>717</v>
       </c>
       <c r="F303" s="22" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -11830,7 +11777,7 @@
         <v>718</v>
       </c>
       <c r="F304" s="22" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -11850,7 +11797,7 @@
         <v>719</v>
       </c>
       <c r="F305" s="22" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -11870,7 +11817,7 @@
         <v>720</v>
       </c>
       <c r="F306" s="22" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -11890,7 +11837,7 @@
         <v>721</v>
       </c>
       <c r="F307" s="22" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -11910,7 +11857,7 @@
         <v>722</v>
       </c>
       <c r="F308" s="23" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -11930,7 +11877,7 @@
         <v>723</v>
       </c>
       <c r="F309" s="22" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -11950,7 +11897,7 @@
         <v>724</v>
       </c>
       <c r="F310" s="22" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -11970,7 +11917,7 @@
         <v>725</v>
       </c>
       <c r="F311" s="22" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -11990,7 +11937,7 @@
         <v>726</v>
       </c>
       <c r="F312" s="22" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -12010,7 +11957,7 @@
         <v>727</v>
       </c>
       <c r="F313" s="22" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -12030,7 +11977,7 @@
         <v>728</v>
       </c>
       <c r="F314" s="22" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -12050,7 +11997,7 @@
         <v>729</v>
       </c>
       <c r="F315" s="22" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -12070,7 +12017,7 @@
         <v>73</v>
       </c>
       <c r="F316" s="22" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -12090,7 +12037,7 @@
         <v>730</v>
       </c>
       <c r="F317" s="22" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -12110,7 +12057,7 @@
         <v>731</v>
       </c>
       <c r="F318" s="22" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -12130,7 +12077,7 @@
         <v>66</v>
       </c>
       <c r="F319" s="22" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -12150,7 +12097,7 @@
         <v>732</v>
       </c>
       <c r="F320" s="22" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -12170,7 +12117,7 @@
         <v>733</v>
       </c>
       <c r="F321" s="22" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -12190,7 +12137,7 @@
         <v>734</v>
       </c>
       <c r="F322" s="22" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -12210,7 +12157,7 @@
         <v>735</v>
       </c>
       <c r="F323" s="22" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -12230,7 +12177,7 @@
         <v>135</v>
       </c>
       <c r="F324" s="22" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -12250,7 +12197,7 @@
         <v>736</v>
       </c>
       <c r="F325" s="22" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -12270,7 +12217,7 @@
         <v>737</v>
       </c>
       <c r="F326" s="22" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -12290,7 +12237,7 @@
         <v>738</v>
       </c>
       <c r="F327" s="22" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -12310,7 +12257,7 @@
         <v>739</v>
       </c>
       <c r="F328" s="22" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -12330,7 +12277,7 @@
         <v>740</v>
       </c>
       <c r="F329" s="22" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -12350,7 +12297,7 @@
         <v>708</v>
       </c>
       <c r="F330" s="22" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -12370,7 +12317,7 @@
         <v>741</v>
       </c>
       <c r="F331" s="22" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -12390,7 +12337,7 @@
         <v>742</v>
       </c>
       <c r="F332" s="22" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -12410,7 +12357,7 @@
         <v>743</v>
       </c>
       <c r="F333" s="22" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -12430,7 +12377,7 @@
         <v>744</v>
       </c>
       <c r="F334" s="22" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -12450,7 +12397,7 @@
         <v>745</v>
       </c>
       <c r="F335" s="22" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -12470,7 +12417,7 @@
         <v>746</v>
       </c>
       <c r="F336" s="22" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -12490,7 +12437,7 @@
         <v>747</v>
       </c>
       <c r="F337" s="22" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -12510,7 +12457,7 @@
         <v>748</v>
       </c>
       <c r="F338" s="22" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -12530,7 +12477,7 @@
         <v>693</v>
       </c>
       <c r="F339" s="22" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -12550,7 +12497,7 @@
         <v>749</v>
       </c>
       <c r="F340" s="22" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -12570,7 +12517,7 @@
         <v>750</v>
       </c>
       <c r="F341" s="22" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -12590,7 +12537,7 @@
         <v>751</v>
       </c>
       <c r="F342" s="22" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -12610,7 +12557,7 @@
         <v>752</v>
       </c>
       <c r="F343" s="22" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -12630,7 +12577,7 @@
         <v>753</v>
       </c>
       <c r="F344" s="22" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -12650,7 +12597,7 @@
         <v>754</v>
       </c>
       <c r="F345" s="22" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -12670,7 +12617,7 @@
         <v>755</v>
       </c>
       <c r="F346" s="22" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -12710,7 +12657,7 @@
         <v>237</v>
       </c>
       <c r="F348" s="22" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -12730,7 +12677,7 @@
         <v>757</v>
       </c>
       <c r="F349" s="22" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -12750,7 +12697,7 @@
         <v>758</v>
       </c>
       <c r="F350" s="22" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -12770,7 +12717,7 @@
         <v>759</v>
       </c>
       <c r="F351" s="22" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -12790,7 +12737,7 @@
         <v>760</v>
       </c>
       <c r="F352" s="22" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -12810,7 +12757,7 @@
         <v>761</v>
       </c>
       <c r="F353" s="22" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -12830,7 +12777,7 @@
         <v>762</v>
       </c>
       <c r="F354" s="22" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -12850,7 +12797,7 @@
         <v>763</v>
       </c>
       <c r="F355" s="22" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -12870,7 +12817,7 @@
         <v>764</v>
       </c>
       <c r="F356" s="22" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -12990,7 +12937,7 @@
         <v>770</v>
       </c>
       <c r="F362" s="22" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -13010,7 +12957,7 @@
         <v>771</v>
       </c>
       <c r="F363" s="22" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -13030,7 +12977,7 @@
         <v>772</v>
       </c>
       <c r="F364" s="22" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -13050,7 +12997,7 @@
         <v>71</v>
       </c>
       <c r="F365" s="22" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -13070,7 +13017,7 @@
         <v>773</v>
       </c>
       <c r="F366" s="22" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -13130,7 +13077,7 @@
         <v>152</v>
       </c>
       <c r="F369" s="22" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -13150,7 +13097,7 @@
         <v>774</v>
       </c>
       <c r="F370" s="22" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -13170,7 +13117,7 @@
         <v>775</v>
       </c>
       <c r="F371" s="22" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -13190,7 +13137,7 @@
         <v>691</v>
       </c>
       <c r="F372" s="22" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -13210,7 +13157,7 @@
         <v>1234</v>
       </c>
       <c r="F373" s="22" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -13229,7 +13176,9 @@
       <c r="E374" s="11" t="s">
         <v>1209</v>
       </c>
-      <c r="F374" s="22"/>
+      <c r="F374" s="11" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="11" t="s">
@@ -13247,7 +13196,9 @@
       <c r="E375" s="11" t="s">
         <v>1210</v>
       </c>
-      <c r="F375" s="22"/>
+      <c r="F375" s="11" t="s">
+        <v>1210</v>
+      </c>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="11" t="s">
@@ -13265,7 +13216,9 @@
       <c r="E376" s="11" t="s">
         <v>1211</v>
       </c>
-      <c r="F376" s="22"/>
+      <c r="F376" s="11" t="s">
+        <v>1211</v>
+      </c>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="13"/>
@@ -13291,7 +13244,7 @@
         <v>1256</v>
       </c>
       <c r="F378" s="26" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -13311,7 +13264,7 @@
         <v>1257</v>
       </c>
       <c r="F379" s="27" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -13331,7 +13284,7 @@
         <v>1258</v>
       </c>
       <c r="F380" s="28" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -13351,7 +13304,7 @@
         <v>1259</v>
       </c>
       <c r="F381" s="28" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -13371,7 +13324,7 @@
         <v>1260</v>
       </c>
       <c r="F382" s="28" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -13411,7 +13364,7 @@
         <v>1262</v>
       </c>
       <c r="F384" s="29" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -13431,7 +13384,7 @@
         <v>1271</v>
       </c>
       <c r="F385" s="30" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -13451,7 +13404,7 @@
         <v>1272</v>
       </c>
       <c r="F386" s="30" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="387" spans="1:6" s="13" customFormat="1">
@@ -13471,7 +13424,7 @@
         <v>1276</v>
       </c>
       <c r="F387" s="26" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -13491,7 +13444,7 @@
         <v>1280</v>
       </c>
       <c r="F388" s="31" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -13511,7 +13464,7 @@
         <v>1282</v>
       </c>
       <c r="F389" s="28" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -13531,7 +13484,7 @@
         <v>1285</v>
       </c>
       <c r="F390" s="28" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -13551,7 +13504,7 @@
         <v>1288</v>
       </c>
       <c r="F391" s="27" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -13571,7 +13524,7 @@
         <v>1292</v>
       </c>
       <c r="F392" s="32" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -13591,7 +13544,7 @@
         <v>1295</v>
       </c>
       <c r="F393" s="33" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -13611,7 +13564,7 @@
         <v>1298</v>
       </c>
       <c r="F394" s="32" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -13631,7 +13584,7 @@
         <v>1300</v>
       </c>
       <c r="F395" s="32" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -13651,7 +13604,7 @@
         <v>1303</v>
       </c>
       <c r="F396" s="32" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -13668,6 +13621,9 @@
         <v>1305</v>
       </c>
       <c r="E398" s="15" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F398" s="15" t="s">
         <v>1305</v>
       </c>
     </row>

--- a/TRANS_Japanese Translation-ECOS-MAPS.xlsx
+++ b/TRANS_Japanese Translation-ECOS-MAPS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="1511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="1513">
   <si>
     <t>No frames selected</t>
   </si>
@@ -4989,6 +4989,12 @@
   </si>
   <si>
     <t>Shape %{count} 個が追加されました</t>
+  </si>
+  <si>
+    <t>%{count} Shapeの媒体を取得</t>
+  </si>
+  <si>
+    <t>次の媒体を取得:  %{name}</t>
   </si>
 </sst>
 </file>
@@ -5687,8 +5693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F398"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:D1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E366" workbookViewId="0">
+      <selection activeCell="F375" sqref="F375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13197,7 +13203,7 @@
         <v>1210</v>
       </c>
       <c r="F375" s="11" t="s">
-        <v>1210</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -13217,7 +13223,7 @@
         <v>1211</v>
       </c>
       <c r="F376" s="11" t="s">
-        <v>1211</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="377" spans="1:6">

--- a/TRANS_Japanese Translation-ECOS-MAPS.xlsx
+++ b/TRANS_Japanese Translation-ECOS-MAPS.xlsx
@@ -3610,9 +3610,6 @@
   </si>
   <si>
     <t>LBL_PenetrationOfTargetAudience_to_remove</t>
-  </si>
-  <si>
-    <t>LBL_OpeningMapPleaseWait</t>
   </si>
   <si>
     <t>LBL_PleaseWait</t>
@@ -4995,6 +4992,9 @@
   </si>
   <si>
     <t>次の媒体を取得:  %{name}</t>
+  </si>
+  <si>
+    <t>MSG_I_OpeningMapPleaseWait</t>
   </si>
 </sst>
 </file>
@@ -5693,8 +5693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F398"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E366" workbookViewId="0">
-      <selection activeCell="F375" sqref="F375"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="B346" sqref="B346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5723,7 +5723,7 @@
         <v>434</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5811,7 +5811,7 @@
         <v>237</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>245</v>
@@ -5843,7 +5843,7 @@
         <v>441</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5863,7 +5863,7 @@
         <v>482</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6363,7 +6363,7 @@
         <v>462</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6503,7 +6503,7 @@
         <v>648</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6583,7 +6583,7 @@
         <v>651</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6623,7 +6623,7 @@
         <v>557</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6803,7 +6803,7 @@
         <v>485</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6863,7 +6863,7 @@
         <v>649</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6963,7 +6963,7 @@
         <v>492</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7023,7 +7023,7 @@
         <v>495</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7043,7 +7043,7 @@
         <v>496</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7063,7 +7063,7 @@
         <v>497</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7083,7 +7083,7 @@
         <v>498</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7103,7 +7103,7 @@
         <v>650</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7123,7 +7123,7 @@
         <v>506</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7143,7 +7143,7 @@
         <v>507</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7163,7 +7163,7 @@
         <v>499</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7183,7 +7183,7 @@
         <v>498</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7203,7 +7203,7 @@
         <v>500</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7223,7 +7223,7 @@
         <v>643</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7323,7 +7323,7 @@
         <v>504</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -7343,7 +7343,7 @@
         <v>505</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -7363,7 +7363,7 @@
         <v>652</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -7383,7 +7383,7 @@
         <v>653</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -7403,7 +7403,7 @@
         <v>654</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -7423,7 +7423,7 @@
         <v>655</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -7463,7 +7463,7 @@
         <v>509</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -7483,7 +7483,7 @@
         <v>510</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -7503,7 +7503,7 @@
         <v>510</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>237</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>311</v>
@@ -7603,7 +7603,7 @@
         <v>514</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -7643,7 +7643,7 @@
         <v>517</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -7663,7 +7663,7 @@
         <v>516</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -7743,7 +7743,7 @@
         <v>520</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7763,7 +7763,7 @@
         <v>521</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -7783,7 +7783,7 @@
         <v>525</v>
       </c>
       <c r="F104" s="22" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -7797,7 +7797,7 @@
         <v>320</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>522</v>
@@ -7823,7 +7823,7 @@
         <v>524</v>
       </c>
       <c r="F106" s="22" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -7843,7 +7843,7 @@
         <v>523</v>
       </c>
       <c r="F107" s="22" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -7923,7 +7923,7 @@
         <v>529</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -7963,7 +7963,7 @@
         <v>530</v>
       </c>
       <c r="F113" s="22" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -8143,7 +8143,7 @@
         <v>541</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -8163,7 +8163,7 @@
         <v>656</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -8183,7 +8183,7 @@
         <v>544</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -8203,7 +8203,7 @@
         <v>542</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -8223,7 +8223,7 @@
         <v>543</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -8243,7 +8243,7 @@
         <v>541</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>70</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>338</v>
@@ -8343,7 +8343,7 @@
         <v>547</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -8423,7 +8423,7 @@
         <v>551</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -8457,7 +8457,7 @@
         <v>342</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>657</v>
@@ -8603,7 +8603,7 @@
         <v>562</v>
       </c>
       <c r="F145" s="22" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>66</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>350</v>
@@ -8623,7 +8623,7 @@
         <v>556</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -8657,7 +8657,7 @@
         <v>352</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>563</v>
@@ -8683,7 +8683,7 @@
         <v>564</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -8723,7 +8723,7 @@
         <v>564</v>
       </c>
       <c r="F151" s="22" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -8743,7 +8743,7 @@
         <v>566</v>
       </c>
       <c r="F152" s="22" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -8803,7 +8803,7 @@
         <v>569</v>
       </c>
       <c r="F155" s="22" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -8823,7 +8823,7 @@
         <v>570</v>
       </c>
       <c r="F156" s="22" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -8843,7 +8843,7 @@
         <v>662</v>
       </c>
       <c r="F157" s="22" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -8863,7 +8863,7 @@
         <v>571</v>
       </c>
       <c r="F158" s="22" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -8883,7 +8883,7 @@
         <v>570</v>
       </c>
       <c r="F159" s="22" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>237</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>367</v>
@@ -8977,7 +8977,7 @@
         <v>368</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>575</v>
@@ -9023,7 +9023,7 @@
         <v>578</v>
       </c>
       <c r="F166" s="25" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -9137,7 +9137,7 @@
         <v>376</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>607</v>
@@ -9157,7 +9157,7 @@
         <v>377</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>577</v>
@@ -9223,7 +9223,7 @@
         <v>584</v>
       </c>
       <c r="F176" s="22" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>237</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>224</v>
@@ -9283,7 +9283,7 @@
         <v>587</v>
       </c>
       <c r="F179" s="25" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -9303,7 +9303,7 @@
         <v>661</v>
       </c>
       <c r="F180" s="25" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -9491,7 +9491,7 @@
         <v>237</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>388</v>
@@ -9583,7 +9583,7 @@
         <v>600</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -9651,7 +9651,7 @@
         <v>237</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C198" s="11" t="s">
         <v>396</v>
@@ -9723,7 +9723,7 @@
         <v>609</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -9743,7 +9743,7 @@
         <v>610</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -9763,7 +9763,7 @@
         <v>611</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -9783,7 +9783,7 @@
         <v>612</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -9823,7 +9823,7 @@
         <v>613</v>
       </c>
       <c r="F206" s="10" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -9863,7 +9863,7 @@
         <v>614</v>
       </c>
       <c r="F208" s="22" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -9883,7 +9883,7 @@
         <v>644</v>
       </c>
       <c r="F209" s="22" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -9897,13 +9897,13 @@
         <v>405</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>645</v>
       </c>
       <c r="F210" s="22" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -10003,7 +10003,7 @@
         <v>618</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -10063,7 +10063,7 @@
         <v>621</v>
       </c>
       <c r="F218" s="25" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -10294,16 +10294,16 @@
         <v>1073</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -10323,7 +10323,7 @@
         <v>631</v>
       </c>
       <c r="F231" s="22" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -10343,7 +10343,7 @@
         <v>632</v>
       </c>
       <c r="F232" s="25" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -10363,7 +10363,7 @@
         <v>633</v>
       </c>
       <c r="F233" s="25" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -10383,7 +10383,7 @@
         <v>634</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -10457,13 +10457,13 @@
         <v>424</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F238" s="22" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -10477,13 +10477,13 @@
         <v>425</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F239" s="22" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -10497,13 +10497,13 @@
         <v>426</v>
       </c>
       <c r="D240" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E240" s="9" t="s">
         <v>1218</v>
       </c>
-      <c r="E240" s="9" t="s">
-        <v>1219</v>
-      </c>
       <c r="F240" s="22" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -10543,7 +10543,7 @@
         <v>639</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -10557,13 +10557,13 @@
         <v>429</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E243" s="6" t="s">
         <v>638</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -10623,7 +10623,7 @@
         <v>663</v>
       </c>
       <c r="F246" s="22" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -10643,7 +10643,7 @@
         <v>664</v>
       </c>
       <c r="F247" s="22" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -10663,7 +10663,7 @@
         <v>665</v>
       </c>
       <c r="F248" s="22" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -10683,7 +10683,7 @@
         <v>666</v>
       </c>
       <c r="F249" s="22" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -10703,7 +10703,7 @@
         <v>667</v>
       </c>
       <c r="F250" s="22" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -10723,7 +10723,7 @@
         <v>66</v>
       </c>
       <c r="F251" s="22" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -10743,7 +10743,7 @@
         <v>668</v>
       </c>
       <c r="F252" s="22" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -10763,7 +10763,7 @@
         <v>669</v>
       </c>
       <c r="F253" s="22" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -10783,7 +10783,7 @@
         <v>670</v>
       </c>
       <c r="F254" s="22" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -10803,7 +10803,7 @@
         <v>671</v>
       </c>
       <c r="F255" s="22" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -10823,7 +10823,7 @@
         <v>672</v>
       </c>
       <c r="F256" s="22" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -10843,7 +10843,7 @@
         <v>673</v>
       </c>
       <c r="F257" s="22" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -10863,7 +10863,7 @@
         <v>674</v>
       </c>
       <c r="F258" s="22" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -10883,7 +10883,7 @@
         <v>675</v>
       </c>
       <c r="F259" s="22" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -10903,7 +10903,7 @@
         <v>676</v>
       </c>
       <c r="F260" s="22" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -10923,7 +10923,7 @@
         <v>677</v>
       </c>
       <c r="F261" s="22" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -10943,7 +10943,7 @@
         <v>678</v>
       </c>
       <c r="F262" s="22" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -10963,7 +10963,7 @@
         <v>679</v>
       </c>
       <c r="F263" s="22" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -10983,7 +10983,7 @@
         <v>680</v>
       </c>
       <c r="F264" s="22" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -11003,7 +11003,7 @@
         <v>681</v>
       </c>
       <c r="F265" s="22" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -11023,7 +11023,7 @@
         <v>682</v>
       </c>
       <c r="F266" s="22" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -11043,7 +11043,7 @@
         <v>683</v>
       </c>
       <c r="F267" s="22" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -11063,7 +11063,7 @@
         <v>684</v>
       </c>
       <c r="F268" s="22" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -11083,7 +11083,7 @@
         <v>685</v>
       </c>
       <c r="F269" s="22" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -11103,7 +11103,7 @@
         <v>686</v>
       </c>
       <c r="F270" s="22" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -11123,7 +11123,7 @@
         <v>687</v>
       </c>
       <c r="F271" s="22" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -11143,7 +11143,7 @@
         <v>688</v>
       </c>
       <c r="F272" s="22" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -11163,7 +11163,7 @@
         <v>689</v>
       </c>
       <c r="F273" s="22" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -11183,7 +11183,7 @@
         <v>690</v>
       </c>
       <c r="F274" s="22" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -11203,7 +11203,7 @@
         <v>691</v>
       </c>
       <c r="F275" s="22" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -11223,7 +11223,7 @@
         <v>692</v>
       </c>
       <c r="F276" s="22" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -11243,7 +11243,7 @@
         <v>693</v>
       </c>
       <c r="F277" s="22" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -11263,7 +11263,7 @@
         <v>694</v>
       </c>
       <c r="F278" s="22" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -11283,7 +11283,7 @@
         <v>695</v>
       </c>
       <c r="F279" s="22" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -11303,7 +11303,7 @@
         <v>696</v>
       </c>
       <c r="F280" s="22" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -11323,7 +11323,7 @@
         <v>697</v>
       </c>
       <c r="F281" s="22" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -11343,7 +11343,7 @@
         <v>698</v>
       </c>
       <c r="F282" s="22" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -11363,7 +11363,7 @@
         <v>699</v>
       </c>
       <c r="F283" s="22" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -11383,7 +11383,7 @@
         <v>700</v>
       </c>
       <c r="F284" s="22" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -11403,7 +11403,7 @@
         <v>701</v>
       </c>
       <c r="F285" s="22" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -11411,7 +11411,7 @@
         <v>239</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C286" s="11" t="s">
         <v>800</v>
@@ -11423,7 +11423,7 @@
         <v>692</v>
       </c>
       <c r="F286" s="22" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -11443,7 +11443,7 @@
         <v>702</v>
       </c>
       <c r="F287" s="22" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -11463,7 +11463,7 @@
         <v>703</v>
       </c>
       <c r="F288" s="22" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -11471,7 +11471,7 @@
         <v>239</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C289" s="11" t="s">
         <v>138</v>
@@ -11483,7 +11483,7 @@
         <v>138</v>
       </c>
       <c r="F289" s="22" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -11503,7 +11503,7 @@
         <v>704</v>
       </c>
       <c r="F290" s="22" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -11523,7 +11523,7 @@
         <v>705</v>
       </c>
       <c r="F291" s="22" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -11543,7 +11543,7 @@
         <v>706</v>
       </c>
       <c r="F292" s="22" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -11563,7 +11563,7 @@
         <v>707</v>
       </c>
       <c r="F293" s="22" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -11583,7 +11583,7 @@
         <v>708</v>
       </c>
       <c r="F294" s="22" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -11603,7 +11603,7 @@
         <v>709</v>
       </c>
       <c r="F295" s="22" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -11623,7 +11623,7 @@
         <v>710</v>
       </c>
       <c r="F296" s="22" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -11643,7 +11643,7 @@
         <v>711</v>
       </c>
       <c r="F297" s="22" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -11663,7 +11663,7 @@
         <v>712</v>
       </c>
       <c r="F298" s="22" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -11683,7 +11683,7 @@
         <v>713</v>
       </c>
       <c r="F299" s="22" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -11703,7 +11703,7 @@
         <v>714</v>
       </c>
       <c r="F300" s="22" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -11723,7 +11723,7 @@
         <v>715</v>
       </c>
       <c r="F301" s="22" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -11731,7 +11731,7 @@
         <v>239</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C302" s="11" t="s">
         <v>815</v>
@@ -11743,7 +11743,7 @@
         <v>716</v>
       </c>
       <c r="F302" s="22" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -11763,7 +11763,7 @@
         <v>717</v>
       </c>
       <c r="F303" s="22" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -11783,7 +11783,7 @@
         <v>718</v>
       </c>
       <c r="F304" s="22" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -11803,7 +11803,7 @@
         <v>719</v>
       </c>
       <c r="F305" s="22" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -11811,7 +11811,7 @@
         <v>239</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C306" s="11" t="s">
         <v>819</v>
@@ -11823,7 +11823,7 @@
         <v>720</v>
       </c>
       <c r="F306" s="22" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -11831,7 +11831,7 @@
         <v>239</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C307" s="11" t="s">
         <v>820</v>
@@ -11843,7 +11843,7 @@
         <v>721</v>
       </c>
       <c r="F307" s="22" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -11863,7 +11863,7 @@
         <v>722</v>
       </c>
       <c r="F308" s="23" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -11883,7 +11883,7 @@
         <v>723</v>
       </c>
       <c r="F309" s="22" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -11903,7 +11903,7 @@
         <v>724</v>
       </c>
       <c r="F310" s="22" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -11923,7 +11923,7 @@
         <v>725</v>
       </c>
       <c r="F311" s="22" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -11943,7 +11943,7 @@
         <v>726</v>
       </c>
       <c r="F312" s="22" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -11963,7 +11963,7 @@
         <v>727</v>
       </c>
       <c r="F313" s="22" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -11983,7 +11983,7 @@
         <v>728</v>
       </c>
       <c r="F314" s="22" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -12003,7 +12003,7 @@
         <v>729</v>
       </c>
       <c r="F315" s="22" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -12011,7 +12011,7 @@
         <v>239</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>73</v>
@@ -12023,7 +12023,7 @@
         <v>73</v>
       </c>
       <c r="F316" s="22" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -12043,7 +12043,7 @@
         <v>730</v>
       </c>
       <c r="F317" s="22" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -12063,7 +12063,7 @@
         <v>731</v>
       </c>
       <c r="F318" s="22" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -12071,7 +12071,7 @@
         <v>239</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C319" s="11" t="s">
         <v>66</v>
@@ -12083,7 +12083,7 @@
         <v>66</v>
       </c>
       <c r="F319" s="22" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -12103,7 +12103,7 @@
         <v>732</v>
       </c>
       <c r="F320" s="22" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -12123,7 +12123,7 @@
         <v>733</v>
       </c>
       <c r="F321" s="22" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -12143,7 +12143,7 @@
         <v>734</v>
       </c>
       <c r="F322" s="22" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -12163,7 +12163,7 @@
         <v>735</v>
       </c>
       <c r="F323" s="22" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -12171,7 +12171,7 @@
         <v>239</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C324" s="11" t="s">
         <v>317</v>
@@ -12183,7 +12183,7 @@
         <v>135</v>
       </c>
       <c r="F324" s="22" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -12203,7 +12203,7 @@
         <v>736</v>
       </c>
       <c r="F325" s="22" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -12223,7 +12223,7 @@
         <v>737</v>
       </c>
       <c r="F326" s="22" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -12243,7 +12243,7 @@
         <v>738</v>
       </c>
       <c r="F327" s="22" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -12263,7 +12263,7 @@
         <v>739</v>
       </c>
       <c r="F328" s="22" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -12283,7 +12283,7 @@
         <v>740</v>
       </c>
       <c r="F329" s="22" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -12291,7 +12291,7 @@
         <v>239</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C330" s="11" t="s">
         <v>810</v>
@@ -12303,7 +12303,7 @@
         <v>708</v>
       </c>
       <c r="F330" s="22" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -12323,7 +12323,7 @@
         <v>741</v>
       </c>
       <c r="F331" s="22" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -12343,7 +12343,7 @@
         <v>742</v>
       </c>
       <c r="F332" s="22" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -12363,7 +12363,7 @@
         <v>743</v>
       </c>
       <c r="F333" s="22" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -12383,7 +12383,7 @@
         <v>744</v>
       </c>
       <c r="F334" s="22" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -12403,7 +12403,7 @@
         <v>745</v>
       </c>
       <c r="F335" s="22" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -12423,7 +12423,7 @@
         <v>746</v>
       </c>
       <c r="F336" s="22" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -12443,7 +12443,7 @@
         <v>747</v>
       </c>
       <c r="F337" s="22" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -12463,7 +12463,7 @@
         <v>748</v>
       </c>
       <c r="F338" s="22" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -12471,7 +12471,7 @@
         <v>239</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C339" s="11" t="s">
         <v>693</v>
@@ -12483,7 +12483,7 @@
         <v>693</v>
       </c>
       <c r="F339" s="22" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -12503,7 +12503,7 @@
         <v>749</v>
       </c>
       <c r="F340" s="22" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -12523,7 +12523,7 @@
         <v>750</v>
       </c>
       <c r="F341" s="22" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -12543,7 +12543,7 @@
         <v>751</v>
       </c>
       <c r="F342" s="22" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -12563,7 +12563,7 @@
         <v>752</v>
       </c>
       <c r="F343" s="22" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -12571,7 +12571,7 @@
         <v>239</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C344" s="11" t="s">
         <v>753</v>
@@ -12583,7 +12583,7 @@
         <v>753</v>
       </c>
       <c r="F344" s="22" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -12591,7 +12591,7 @@
         <v>239</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C345" s="11" t="s">
         <v>844</v>
@@ -12603,7 +12603,7 @@
         <v>754</v>
       </c>
       <c r="F345" s="22" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -12611,7 +12611,7 @@
         <v>239</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>1196</v>
+        <v>1512</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>845</v>
@@ -12623,7 +12623,7 @@
         <v>755</v>
       </c>
       <c r="F346" s="22" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -12663,7 +12663,7 @@
         <v>237</v>
       </c>
       <c r="F348" s="22" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -12683,7 +12683,7 @@
         <v>757</v>
       </c>
       <c r="F349" s="22" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -12703,7 +12703,7 @@
         <v>758</v>
       </c>
       <c r="F350" s="22" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -12723,7 +12723,7 @@
         <v>759</v>
       </c>
       <c r="F351" s="22" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -12743,7 +12743,7 @@
         <v>760</v>
       </c>
       <c r="F352" s="22" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -12763,7 +12763,7 @@
         <v>761</v>
       </c>
       <c r="F353" s="22" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -12783,7 +12783,7 @@
         <v>762</v>
       </c>
       <c r="F354" s="22" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -12803,7 +12803,7 @@
         <v>763</v>
       </c>
       <c r="F355" s="22" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -12823,7 +12823,7 @@
         <v>764</v>
       </c>
       <c r="F356" s="22" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -12831,7 +12831,7 @@
         <v>239</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>847</v>
@@ -12871,7 +12871,7 @@
         <v>239</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>778</v>
@@ -12891,7 +12891,7 @@
         <v>239</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>779</v>
@@ -12943,7 +12943,7 @@
         <v>770</v>
       </c>
       <c r="F362" s="22" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -12951,7 +12951,7 @@
         <v>239</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>849</v>
@@ -12963,7 +12963,7 @@
         <v>771</v>
       </c>
       <c r="F363" s="22" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -12983,7 +12983,7 @@
         <v>772</v>
       </c>
       <c r="F364" s="22" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -13003,7 +13003,7 @@
         <v>71</v>
       </c>
       <c r="F365" s="22" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -13023,7 +13023,7 @@
         <v>773</v>
       </c>
       <c r="F366" s="22" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -13031,7 +13031,7 @@
         <v>239</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C367" s="11" t="s">
         <v>399</v>
@@ -13043,7 +13043,7 @@
         <v>173</v>
       </c>
       <c r="F367" s="22" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -13051,7 +13051,7 @@
         <v>239</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C368" s="11" t="s">
         <v>400</v>
@@ -13063,7 +13063,7 @@
         <v>174</v>
       </c>
       <c r="F368" s="22" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -13083,7 +13083,7 @@
         <v>152</v>
       </c>
       <c r="F369" s="22" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -13103,7 +13103,7 @@
         <v>774</v>
       </c>
       <c r="F370" s="22" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -13123,7 +13123,7 @@
         <v>775</v>
       </c>
       <c r="F371" s="22" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -13131,7 +13131,7 @@
         <v>239</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>799</v>
@@ -13143,7 +13143,7 @@
         <v>691</v>
       </c>
       <c r="F372" s="22" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -13157,73 +13157,73 @@
         <v>852</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E373" s="11" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F373" s="22" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E374" s="11" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F374" s="11" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="11" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B375" s="11" t="s">
         <v>1205</v>
       </c>
-      <c r="B375" s="11" t="s">
-        <v>1206</v>
-      </c>
       <c r="C375" s="11" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D375" s="11" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E375" s="11" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F375" s="11" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="11" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E376" s="11" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F376" s="11" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -13235,142 +13235,142 @@
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="11" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C378" s="13" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D378" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E378" s="14" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F378" s="26" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="11" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D379" s="11" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E379" s="15" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F379" s="27" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="11" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E380" s="15" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F380" s="28" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="11" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B381" s="11" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C381" s="11" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D381" s="11" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E381" s="15" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F381" s="28" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="11" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B382" s="11" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D382" s="11" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E382" s="15" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F382" s="28" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="11" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B383" s="11" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C383" s="11" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E383" s="15" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="F383" s="28" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="384" spans="1:6" s="16" customFormat="1">
       <c r="A384" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B384" s="16" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C384" s="16" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D384" s="16" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E384" s="17" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F384" s="29" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -13378,19 +13378,19 @@
         <v>239</v>
       </c>
       <c r="B385" s="18" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C385" s="18" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D385" s="18" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E385" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F385" s="30" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -13398,59 +13398,59 @@
         <v>239</v>
       </c>
       <c r="B386" s="18" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C386" s="18" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D386" s="18" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E386" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F386" s="30" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="387" spans="1:6" s="13" customFormat="1">
       <c r="A387" s="11" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B387" s="13" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C387" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D387" s="13" t="s">
         <v>1275</v>
       </c>
-      <c r="C387" s="13" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D387" s="13" t="s">
-        <v>1276</v>
-      </c>
       <c r="E387" s="14" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F387" s="26" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="11" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B388" s="11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C388" s="11" t="s">
         <v>1278</v>
       </c>
-      <c r="C388" s="11" t="s">
+      <c r="D388" s="11" t="s">
         <v>1279</v>
       </c>
-      <c r="D388" s="11" t="s">
-        <v>1280</v>
-      </c>
       <c r="E388" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F388" s="31" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -13458,39 +13458,39 @@
         <v>239</v>
       </c>
       <c r="B389" s="11" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C389" s="11" t="s">
         <v>1281</v>
       </c>
-      <c r="C389" s="11" t="s">
-        <v>1282</v>
-      </c>
       <c r="D389" s="11" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E389" s="15" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F389" s="28" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="11" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B390" s="11" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C390" s="11" t="s">
         <v>1283</v>
       </c>
-      <c r="C390" s="11" t="s">
+      <c r="D390" s="11" t="s">
         <v>1284</v>
       </c>
-      <c r="D390" s="11" t="s">
-        <v>1285</v>
-      </c>
       <c r="E390" s="15" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F390" s="28" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -13498,19 +13498,19 @@
         <v>239</v>
       </c>
       <c r="B391" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C391" s="11" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D391" s="11" t="s">
         <v>1287</v>
       </c>
-      <c r="C391" s="11" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D391" s="11" t="s">
-        <v>1288</v>
-      </c>
       <c r="E391" s="15" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F391" s="27" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -13518,19 +13518,19 @@
         <v>239</v>
       </c>
       <c r="B392" s="11" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C392" s="11" t="s">
         <v>1290</v>
       </c>
-      <c r="C392" s="11" t="s">
+      <c r="D392" s="11" t="s">
         <v>1291</v>
       </c>
-      <c r="D392" s="11" t="s">
-        <v>1292</v>
-      </c>
       <c r="E392" s="15" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F392" s="32" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -13538,19 +13538,19 @@
         <v>239</v>
       </c>
       <c r="B393" s="11" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C393" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="C393" s="11" t="s">
+      <c r="D393" s="11" t="s">
         <v>1294</v>
       </c>
-      <c r="D393" s="11" t="s">
-        <v>1295</v>
-      </c>
       <c r="E393" s="15" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F393" s="33" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -13558,19 +13558,19 @@
         <v>239</v>
       </c>
       <c r="B394" s="19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C394" s="11" t="s">
         <v>1296</v>
       </c>
-      <c r="C394" s="11" t="s">
+      <c r="D394" s="11" t="s">
         <v>1297</v>
       </c>
-      <c r="D394" s="11" t="s">
-        <v>1298</v>
-      </c>
       <c r="E394" s="15" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F394" s="32" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -13578,19 +13578,19 @@
         <v>239</v>
       </c>
       <c r="B395" s="19" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C395" s="19" t="s">
         <v>1299</v>
       </c>
-      <c r="C395" s="19" t="s">
-        <v>1300</v>
-      </c>
       <c r="D395" s="11" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E395" s="15" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F395" s="32" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -13598,19 +13598,19 @@
         <v>239</v>
       </c>
       <c r="B396" s="11" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C396" s="11" t="s">
         <v>1301</v>
       </c>
-      <c r="C396" s="11" t="s">
+      <c r="D396" s="11" t="s">
         <v>1302</v>
       </c>
-      <c r="D396" s="11" t="s">
-        <v>1303</v>
-      </c>
       <c r="E396" s="15" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F396" s="32" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -13618,19 +13618,19 @@
         <v>239</v>
       </c>
       <c r="B398" s="11" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C398" s="11" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D398" s="11" t="s">
         <v>1304</v>
       </c>
-      <c r="C398" s="11" t="s">
+      <c r="E398" s="15" t="s">
         <v>1304</v>
       </c>
-      <c r="D398" s="11" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E398" s="15" t="s">
-        <v>1305</v>
-      </c>
       <c r="F398" s="15" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
   </sheetData>

--- a/TRANS_Japanese Translation-ECOS-MAPS.xlsx
+++ b/TRANS_Japanese Translation-ECOS-MAPS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="1515">
   <si>
     <t>No frames selected</t>
   </si>
@@ -4988,13 +4988,19 @@
     <t>Shape %{count} 個が追加されました</t>
   </si>
   <si>
-    <t>%{count} Shapeの媒体を取得</t>
-  </si>
-  <si>
     <t>次の媒体を取得:  %{name}</t>
   </si>
   <si>
     <t>MSG_I_OpeningMapPleaseWait</t>
+  </si>
+  <si>
+    <t>%{tabName} タブを%ローディング中　</t>
+  </si>
+  <si>
+    <t>Shapeから媒体を{count}%取得中</t>
+  </si>
+  <si>
+    <t>媒体ID</t>
   </si>
 </sst>
 </file>
@@ -5693,8 +5699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F398"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="B346" sqref="B346"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12611,7 +12617,7 @@
         <v>239</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>845</v>
@@ -13183,7 +13189,7 @@
         <v>1208</v>
       </c>
       <c r="F374" s="11" t="s">
-        <v>1208</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -13203,7 +13209,7 @@
         <v>1209</v>
       </c>
       <c r="F375" s="11" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -13223,7 +13229,7 @@
         <v>1210</v>
       </c>
       <c r="F376" s="11" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -13630,7 +13636,7 @@
         <v>1304</v>
       </c>
       <c r="F398" s="15" t="s">
-        <v>1304</v>
+        <v>1514</v>
       </c>
     </row>
   </sheetData>

--- a/TRANS_Japanese Translation-ECOS-MAPS.xlsx
+++ b/TRANS_Japanese Translation-ECOS-MAPS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="1521">
   <si>
     <t>No frames selected</t>
   </si>
@@ -4917,6 +4917,87 @@
     <t>重複データの処理中…</t>
   </si>
   <si>
+    <t>ページあたりの表示件数</t>
+  </si>
+  <si>
+    <t>表示するアイテムがありません</t>
+  </si>
+  <si>
+    <t>変更内容は保存されません。続けますか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全%{total} 件中%{x} - %{y} </t>
+  </si>
+  <si>
+    <t>ホーム</t>
+  </si>
+  <si>
+    <t>ファイルの処理中にエラーが発生しました。はじめからやりなおしてください</t>
+  </si>
+  <si>
+    <t>登録媒体の絞込み</t>
+  </si>
+  <si>
+    <t>ファイルを選ぶ</t>
+  </si>
+  <si>
+    <t>ファイルのアップロード</t>
+  </si>
+  <si>
+    <t>再読み込み中…</t>
+  </si>
+  <si>
+    <t>絞込み検索</t>
+  </si>
+  <si>
+    <t>マッピングされていません</t>
+  </si>
+  <si>
+    <t>ja (JAPANESE) [Received on Fri 16/10/2015 16:16]</t>
+  </si>
+  <si>
+    <t>媒体 %{count} 個が追加されました</t>
+  </si>
+  <si>
+    <t>%{count} POIが追加されました</t>
+  </si>
+  <si>
+    <t>Shape %{count} 個が追加されました</t>
+  </si>
+  <si>
+    <t>次の媒体を取得:  %{name}</t>
+  </si>
+  <si>
+    <t>MSG_I_OpeningMapPleaseWait</t>
+  </si>
+  <si>
+    <t>%{tabName} タブを%ローディング中　</t>
+  </si>
+  <si>
+    <t>Shapeから媒体を{count}%取得中</t>
+  </si>
+  <si>
+    <t>媒体ID</t>
+  </si>
+  <si>
+    <t>LBL_Complete</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>完全な</t>
+  </si>
+  <si>
+    <t>LBL_Deleted</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>削除されました</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -4936,71 +5017,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: %{count} / {total}</t>
+      <t>: %{count} / %{total}</t>
     </r>
-  </si>
-  <si>
-    <t>ページあたりの表示件数</t>
-  </si>
-  <si>
-    <t>表示するアイテムがありません</t>
-  </si>
-  <si>
-    <t>変更内容は保存されません。続けますか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全%{total} 件中%{x} - %{y} </t>
-  </si>
-  <si>
-    <t>ホーム</t>
-  </si>
-  <si>
-    <t>ファイルの処理中にエラーが発生しました。はじめからやりなおしてください</t>
-  </si>
-  <si>
-    <t>登録媒体の絞込み</t>
-  </si>
-  <si>
-    <t>ファイルを選ぶ</t>
-  </si>
-  <si>
-    <t>ファイルのアップロード</t>
-  </si>
-  <si>
-    <t>再読み込み中…</t>
-  </si>
-  <si>
-    <t>絞込み検索</t>
-  </si>
-  <si>
-    <t>マッピングされていません</t>
-  </si>
-  <si>
-    <t>ja (JAPANESE) [Received on Fri 16/10/2015 16:16]</t>
-  </si>
-  <si>
-    <t>媒体 %{count} 個が追加されました</t>
-  </si>
-  <si>
-    <t>%{count} POIが追加されました</t>
-  </si>
-  <si>
-    <t>Shape %{count} 個が追加されました</t>
-  </si>
-  <si>
-    <t>次の媒体を取得:  %{name}</t>
-  </si>
-  <si>
-    <t>MSG_I_OpeningMapPleaseWait</t>
-  </si>
-  <si>
-    <t>%{tabName} タブを%ローディング中　</t>
-  </si>
-  <si>
-    <t>Shapeから媒体を{count}%取得中</t>
-  </si>
-  <si>
-    <t>媒体ID</t>
   </si>
 </sst>
 </file>
@@ -5697,10 +5715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F398"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E363" workbookViewId="0">
+      <selection activeCell="F384" sqref="F384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5729,7 +5747,7 @@
         <v>434</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10469,7 +10487,7 @@
         <v>1218</v>
       </c>
       <c r="F238" s="22" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -10489,7 +10507,7 @@
         <v>1219</v>
       </c>
       <c r="F239" s="22" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -10509,7 +10527,7 @@
         <v>1218</v>
       </c>
       <c r="F240" s="22" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -12617,7 +12635,7 @@
         <v>239</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>845</v>
@@ -13189,7 +13207,7 @@
         <v>1208</v>
       </c>
       <c r="F374" s="11" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -13209,7 +13227,7 @@
         <v>1209</v>
       </c>
       <c r="F375" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -13229,7 +13247,7 @@
         <v>1210</v>
       </c>
       <c r="F376" s="11" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -13376,7 +13394,7 @@
         <v>1261</v>
       </c>
       <c r="F384" s="29" t="s">
-        <v>1493</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -13396,7 +13414,7 @@
         <v>1270</v>
       </c>
       <c r="F385" s="30" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -13416,7 +13434,7 @@
         <v>1271</v>
       </c>
       <c r="F386" s="30" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="387" spans="1:6" s="13" customFormat="1">
@@ -13436,7 +13454,7 @@
         <v>1275</v>
       </c>
       <c r="F387" s="26" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -13456,7 +13474,7 @@
         <v>1279</v>
       </c>
       <c r="F388" s="31" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -13476,7 +13494,7 @@
         <v>1281</v>
       </c>
       <c r="F389" s="28" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -13496,7 +13514,7 @@
         <v>1284</v>
       </c>
       <c r="F390" s="28" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -13516,7 +13534,7 @@
         <v>1287</v>
       </c>
       <c r="F391" s="27" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -13536,7 +13554,7 @@
         <v>1291</v>
       </c>
       <c r="F392" s="32" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -13556,7 +13574,7 @@
         <v>1294</v>
       </c>
       <c r="F393" s="33" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -13576,7 +13594,7 @@
         <v>1297</v>
       </c>
       <c r="F394" s="32" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -13596,7 +13614,7 @@
         <v>1299</v>
       </c>
       <c r="F395" s="32" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -13616,7 +13634,7 @@
         <v>1302</v>
       </c>
       <c r="F396" s="32" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -13636,7 +13654,51 @@
         <v>1304</v>
       </c>
       <c r="F398" s="15" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="E399" s="15"/>
+      <c r="F399" s="15"/>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B400" s="11" t="s">
         <v>1514</v>
+      </c>
+      <c r="C400" s="11" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D400" s="11" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E400" s="9" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F400" s="11" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B401" s="11" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C401" s="11" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D401" s="11" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E401" s="9" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F401" s="11" t="s">
+        <v>1519</v>
       </c>
     </row>
   </sheetData>
